--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_ESSジョブの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_ESSジョブの管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\92_分社化\10_設計フェーズ\10_成果物\【触らないでください】40_その他\ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\main\30_リリース\【T4】\202502\20250210\03438\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="9225" tabRatio="858" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="9228" tabRatio="842" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,7 @@
   <definedNames>
     <definedName name="_Fill" localSheetId="2" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill" hidden="1">[1]責準明細表!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ESSジョブの管理!$A$9:$S$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">手順!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" hidden="1">'[2]１．InfoCube (YKCH0010)案１:１．InfoCube (YKCH0010) 案２'!$W$5:$W$5</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
@@ -96,7 +97,7 @@
     <definedName name="関連表" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -106,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="310">
   <si>
     <t>BR.100アプリケーション・セットアップ文書</t>
     <rPh sb="21" eb="23">
@@ -1604,10 +1605,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Issue1.3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>メニュー</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1861,17 +1858,49 @@
     <rPh sb="4" eb="6">
       <t>ケンサク</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Issue1.4</t>
+  </si>
+  <si>
+    <t>Issue1.4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼動_20247対応</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>否認済請求書の取消</t>
+  </si>
+  <si>
+    <t>否認済請求書の取消</t>
+    <rPh sb="0" eb="6">
+      <t>ヒニンズミセイキュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO003A01EJ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/Custom/XXCFO/XXCFO003A01R.xdo</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2183,6 +2212,13 @@
     <font>
       <sz val="11"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -2562,7 +2598,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2771,13 +2807,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="7" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2851,6 +2881,33 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="15" fontId="45" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="45" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2890,7 +2947,16 @@
     <cellStyle name="標準 9" xfId="7"/>
     <cellStyle name="標準_BR100_表紙テンプレート" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2969,8 +3035,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="408214" y="6117772"/>
-          <a:ext cx="14777357" cy="7265542"/>
+          <a:off x="409575" y="6036129"/>
+          <a:ext cx="14773275" cy="7118585"/>
           <a:chOff x="370114" y="5595257"/>
           <a:chExt cx="11647715" cy="5795971"/>
         </a:xfrm>
@@ -3550,6 +3616,239 @@
       <sheetName val="예금명세"/>
       <sheetName val="Interface_List"/>
       <sheetName val="抜け"/>
+      <sheetName val="OTSearchingReport1"/>
+      <sheetName val="BCP_状況"/>
+      <sheetName val="コンディション一覧(経理)"/>
+      <sheetName val="プロンプト一覧"/>
+      <sheetName val="#REF"/>
+      <sheetName val="納品対象外 セレクトデータ"/>
+      <sheetName val="サマリ"/>
+      <sheetName val="ＩＰアドレス定義"/>
+      <sheetName val="諸定義&amp;保守"/>
+      <sheetName val="調査シート"/>
+      <sheetName val="DATA"/>
+      <sheetName val="項目一覧"/>
+      <sheetName val="リスト（非表示）"/>
+      <sheetName val="貼り付け用"/>
+      <sheetName val="作業者→ロール"/>
+      <sheetName val="内部マスタテーブル"/>
+      <sheetName val="テーマ別"/>
+      <sheetName val="区分"/>
+      <sheetName val="☆管理項目定義"/>
+      <sheetName val="Package"/>
+      <sheetName val="Param"/>
+      <sheetName val="ロール一覧"/>
+      <sheetName val="リリース依頼書"/>
+      <sheetName val="選択肢"/>
+      <sheetName val="ＶＢＡ定義"/>
+      <sheetName val="TBL"/>
+      <sheetName val="入力リスト"/>
+      <sheetName val="プルダウンリスト"/>
+      <sheetName val="選択値"/>
+      <sheetName val="指定可能値"/>
+      <sheetName val="入力可能値"/>
+      <sheetName val="選択可能値"/>
+      <sheetName val="3.指定可能値"/>
+      <sheetName val="データリスト"/>
+      <sheetName val="コード値変換リスト(※編集不可)"/>
+      <sheetName val="items"/>
+      <sheetName val="１．InfoCube_(YKCH0010)案１"/>
+      <sheetName val="値リスト"/>
+      <sheetName val="現行DB一覧2(CT)"/>
+      <sheetName val="ＤＩＡＳ拡張ＰＪ　2013年"/>
+      <sheetName val="予算シート確認"/>
+      <sheetName val="原価要素"/>
+      <sheetName val="Cover_Cheet"/>
+      <sheetName val="WBS一覧"/>
+      <sheetName val="各社別課金"/>
+      <sheetName val="期首予算対比"/>
+      <sheetName val="入力規則(リスト)"/>
+      <sheetName val="Cover_Cheet (変更前)"/>
+      <sheetName val="Cover_Cheet（変更後）"/>
+      <sheetName val="領域マスタ"/>
+      <sheetName val="Cover_Cheet（実績＋落ち着き）"/>
+      <sheetName val="参考)日付関連"/>
+      <sheetName val="【編集禁止】MST"/>
+      <sheetName val="件数集計"/>
+      <sheetName val="2000"/>
+      <sheetName val="2001"/>
+      <sheetName val="Cover"/>
+      <sheetName val="Change History"/>
+      <sheetName val="UT-Core"/>
+      <sheetName val="Test Scenario"/>
+      <sheetName val="Execution Result(1-1)"/>
+      <sheetName val="Execution Result(1-2)"/>
+      <sheetName val="Execution Result(1-3)"/>
+      <sheetName val="Execution Result(1-4)"/>
+      <sheetName val="Execution Result(1-5)"/>
+      <sheetName val="Execution Result(1-6)"/>
+      <sheetName val="Execution Result(1-7)"/>
+      <sheetName val="Execution Result(1-8-1)"/>
+      <sheetName val="Execution Result(1-8-2)"/>
+      <sheetName val="Execution Result(1-9)"/>
+      <sheetName val="Execution Result(1-10)"/>
+      <sheetName val="Execution Result(1-11)"/>
+      <sheetName val="Execution Result(1-12-1)"/>
+      <sheetName val="Execution Result(1-12-2)"/>
+      <sheetName val="【2】変更履歴"/>
+      <sheetName val="407_408_409条件グループ234"/>
+      <sheetName val="特定業種区分"/>
+      <sheetName val="売上組織"/>
+      <sheetName val="凡例"/>
+      <sheetName val="Value"/>
+      <sheetName val="参照TBL)開発対象一覧"/>
+      <sheetName val="元ネタ"/>
+      <sheetName val="XXXX"/>
+      <sheetName val="0915"/>
+      <sheetName val="0926"/>
+      <sheetName val="0937"/>
+      <sheetName val="0974"/>
+      <sheetName val="0991"/>
+      <sheetName val="0992"/>
+      <sheetName val="１．InfoCube_(YKCH0010)_案２"/>
+      <sheetName val="Cover_Cheet_(変更前)"/>
+      <sheetName val="Status"/>
+      <sheetName val="Delete Prohibition"/>
+      <sheetName val="TechSpec"/>
+      <sheetName val="定義"/>
+      <sheetName val="参照指標"/>
+      <sheetName val="向先分類"/>
+      <sheetName val="1084_顧客グループ"/>
+      <sheetName val="設定"/>
+      <sheetName val="Resource"/>
+      <sheetName val="サイトコード・名"/>
+      <sheetName val="課題管理表"/>
+      <sheetName val="小数点の扱い"/>
+      <sheetName val="計算方法補足"/>
+      <sheetName val="課題集計"/>
+      <sheetName val="Promotion"/>
+      <sheetName val="Day master"/>
+      <sheetName val="Pricing tool"/>
+      <sheetName val="Category list"/>
+      <sheetName val="list_old"/>
+      <sheetName val="国コード"/>
+      <sheetName val="（参考）仕入先支払条件_支払方法"/>
+      <sheetName val="（参考）得意先支払条件_支払方法"/>
+      <sheetName val="（参考）銀行コード"/>
+      <sheetName val="（参照）連続番号&amp;支払期日シフトフラグ"/>
+      <sheetName val="（参考）国コード"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="MST"/>
+      <sheetName val="MKPF(4.6C)"/>
+      <sheetName val="１．InfoCube_(YKCH0010)案１1"/>
+      <sheetName val="１．InfoCube_(YKCH0010)_案２1"/>
+      <sheetName val="Estimator_Base"/>
+      <sheetName val="リスト_(2)"/>
+      <sheetName val="機能設計書_（内容説明）"/>
+      <sheetName val="Pattern_Definition"/>
+      <sheetName val="コード値(コード順)_"/>
+      <sheetName val="(Status_Definition)"/>
+      <sheetName val="納品対象外_セレクトデータ"/>
+      <sheetName val="3_指定可能値"/>
+      <sheetName val="Cover_Cheet_(変更前)1"/>
+      <sheetName val="Change_History"/>
+      <sheetName val="Test_Scenario"/>
+      <sheetName val="Execution_Result(1-1)"/>
+      <sheetName val="Execution_Result(1-2)"/>
+      <sheetName val="Execution_Result(1-3)"/>
+      <sheetName val="Execution_Result(1-4)"/>
+      <sheetName val="Execution_Result(1-5)"/>
+      <sheetName val="Execution_Result(1-6)"/>
+      <sheetName val="Execution_Result(1-7)"/>
+      <sheetName val="Execution_Result(1-8-1)"/>
+      <sheetName val="Execution_Result(1-8-2)"/>
+      <sheetName val="Execution_Result(1-9)"/>
+      <sheetName val="Execution_Result(1-10)"/>
+      <sheetName val="Execution_Result(1-11)"/>
+      <sheetName val="Execution_Result(1-12-1)"/>
+      <sheetName val="Execution_Result(1-12-2)"/>
+      <sheetName val="Delete_Prohibition"/>
+      <sheetName val="変更履歴"/>
+      <sheetName val="テストシナリオ"/>
+      <sheetName val="シナリオ共通テストデータ"/>
+      <sheetName val="実行結果(1)"/>
+      <sheetName val="実行結果(2)"/>
+      <sheetName val="実行結果(3)"/>
+      <sheetName val="実行結果(4)"/>
+      <sheetName val="実行結果(5)"/>
+      <sheetName val="実行結果(6)"/>
+      <sheetName val="実行結果(7)"/>
+      <sheetName val="実行結果(8)"/>
+      <sheetName val="実行結果(9)"/>
+      <sheetName val="UT-Tech"/>
+      <sheetName val="テストコンディション "/>
+      <sheetName val="テスト実行結果 1"/>
+      <sheetName val="テスト実行結果 2"/>
+      <sheetName val="テスト実行結果 3"/>
+      <sheetName val="テスト実行結果 4"/>
+      <sheetName val="テスト実行結果 5"/>
+      <sheetName val="テスト実行結果 6"/>
+      <sheetName val="実行結果_1"/>
+      <sheetName val="実行結果_2"/>
+      <sheetName val="実行結果 (3)"/>
+      <sheetName val="実行結果_3"/>
+      <sheetName val="実行結果_4"/>
+      <sheetName val="実行結果_5"/>
+      <sheetName val="実行結果_6"/>
+      <sheetName val="実行結果_7"/>
+      <sheetName val="変換表v1.03"/>
+      <sheetName val="リスト値（販物）"/>
+      <sheetName val="01．整備手順"/>
+      <sheetName val="リスト・ステータス"/>
+      <sheetName val="_list"/>
+      <sheetName val="伝票タイプリスト（経理メンテ）"/>
+      <sheetName val="通貨リスト（経理メンテ）"/>
+      <sheetName val="源泉徴収ＣＤリスト（経理メンテ）"/>
+      <sheetName val="支払条件、支払方法リスト"/>
+      <sheetName val="税リスト（経理メンテ）"/>
+      <sheetName val="利益センタ・原価センタリスト（経理メンテ）"/>
+      <sheetName val="cgtap90"/>
+      <sheetName val="改訂履歴"/>
+      <sheetName val="条件タイプ(産エネ)"/>
+      <sheetName val="createdb1"/>
+      <sheetName val="（ヘッダ）"/>
+      <sheetName val="エビデンス (5回目)"/>
+      <sheetName val="COVER PAGE"/>
+      <sheetName val="Test Condition Description"/>
+      <sheetName val="Doc History"/>
+      <sheetName val="Source (0件)"/>
+      <sheetName val="Result (0件)"/>
+      <sheetName val="Source (1件)"/>
+      <sheetName val="Target (1件)_ヘッダー"/>
+      <sheetName val="Target (1件)_データ"/>
+      <sheetName val="Result (1件)"/>
+      <sheetName val="Source (複数件)"/>
+      <sheetName val="Target (複数件)_ヘッダー"/>
+      <sheetName val="Target (複数件)_データ"/>
+      <sheetName val="Result (複数件)"/>
+      <sheetName val="Source (複数件2)"/>
+      <sheetName val="Target (複数件2)_ヘッダー"/>
+      <sheetName val="Target (複数件2)_データ"/>
+      <sheetName val="Result (複数件2)"/>
+      <sheetName val="Source (バリデーション)"/>
+      <sheetName val="Result (バリデーション)"/>
+      <sheetName val="Data Type Format"/>
+      <sheetName val="MTT Change History"/>
+      <sheetName val="SingleByte"/>
+      <sheetName val="DoubleByte"/>
+      <sheetName val="DCONFIG"/>
+      <sheetName val="SETUP_HIDDEN"/>
+      <sheetName val="参考(現行データからの抽出SQL)"/>
+      <sheetName val="実行結果(シナリオID-1)"/>
+      <sheetName val="実行結果(シナリオID-2"/>
+      <sheetName val="実行結果(シナリオID-3)"/>
+      <sheetName val="実行結果(シナリオID-4)"/>
+      <sheetName val="テストコンディション"/>
+      <sheetName val="実行結果"/>
+      <sheetName val="JP070814"/>
+      <sheetName val="勤務体系"/>
+      <sheetName val="改定履歴"/>
+      <sheetName val="区分値"/>
+      <sheetName val="承認票"/>
+      <sheetName val="使用する勘定一覧"/>
+      <sheetName val="menu"/>
+      <sheetName val="Naming"/>
+      <sheetName val="List box"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -3644,6 +3943,245 @@
       <sheetData sheetId="89" refreshError="1"/>
       <sheetData sheetId="90" refreshError="1"/>
       <sheetData sheetId="91" refreshError="1"/>
+      <sheetData sheetId="92" refreshError="1"/>
+      <sheetData sheetId="93" refreshError="1"/>
+      <sheetData sheetId="94" refreshError="1"/>
+      <sheetData sheetId="95" refreshError="1"/>
+      <sheetData sheetId="96" refreshError="1"/>
+      <sheetData sheetId="97" refreshError="1"/>
+      <sheetData sheetId="98" refreshError="1"/>
+      <sheetData sheetId="99" refreshError="1"/>
+      <sheetData sheetId="100" refreshError="1"/>
+      <sheetData sheetId="101" refreshError="1"/>
+      <sheetData sheetId="102" refreshError="1"/>
+      <sheetData sheetId="103" refreshError="1"/>
+      <sheetData sheetId="104" refreshError="1"/>
+      <sheetData sheetId="105" refreshError="1"/>
+      <sheetData sheetId="106" refreshError="1"/>
+      <sheetData sheetId="107" refreshError="1"/>
+      <sheetData sheetId="108" refreshError="1"/>
+      <sheetData sheetId="109" refreshError="1"/>
+      <sheetData sheetId="110" refreshError="1"/>
+      <sheetData sheetId="111" refreshError="1"/>
+      <sheetData sheetId="112" refreshError="1"/>
+      <sheetData sheetId="113" refreshError="1"/>
+      <sheetData sheetId="114" refreshError="1"/>
+      <sheetData sheetId="115" refreshError="1"/>
+      <sheetData sheetId="116" refreshError="1"/>
+      <sheetData sheetId="117" refreshError="1"/>
+      <sheetData sheetId="118" refreshError="1"/>
+      <sheetData sheetId="119" refreshError="1"/>
+      <sheetData sheetId="120" refreshError="1"/>
+      <sheetData sheetId="121" refreshError="1"/>
+      <sheetData sheetId="122" refreshError="1"/>
+      <sheetData sheetId="123" refreshError="1"/>
+      <sheetData sheetId="124" refreshError="1"/>
+      <sheetData sheetId="125" refreshError="1"/>
+      <sheetData sheetId="126" refreshError="1"/>
+      <sheetData sheetId="127" refreshError="1"/>
+      <sheetData sheetId="128" refreshError="1"/>
+      <sheetData sheetId="129" refreshError="1"/>
+      <sheetData sheetId="130" refreshError="1"/>
+      <sheetData sheetId="131" refreshError="1"/>
+      <sheetData sheetId="132" refreshError="1"/>
+      <sheetData sheetId="133" refreshError="1"/>
+      <sheetData sheetId="134" refreshError="1"/>
+      <sheetData sheetId="135" refreshError="1"/>
+      <sheetData sheetId="136" refreshError="1"/>
+      <sheetData sheetId="137" refreshError="1"/>
+      <sheetData sheetId="138" refreshError="1"/>
+      <sheetData sheetId="139" refreshError="1"/>
+      <sheetData sheetId="140" refreshError="1"/>
+      <sheetData sheetId="141" refreshError="1"/>
+      <sheetData sheetId="142" refreshError="1"/>
+      <sheetData sheetId="143" refreshError="1"/>
+      <sheetData sheetId="144" refreshError="1"/>
+      <sheetData sheetId="145" refreshError="1"/>
+      <sheetData sheetId="146" refreshError="1"/>
+      <sheetData sheetId="147" refreshError="1"/>
+      <sheetData sheetId="148" refreshError="1"/>
+      <sheetData sheetId="149" refreshError="1"/>
+      <sheetData sheetId="150" refreshError="1"/>
+      <sheetData sheetId="151" refreshError="1"/>
+      <sheetData sheetId="152" refreshError="1"/>
+      <sheetData sheetId="153" refreshError="1"/>
+      <sheetData sheetId="154" refreshError="1"/>
+      <sheetData sheetId="155" refreshError="1"/>
+      <sheetData sheetId="156" refreshError="1"/>
+      <sheetData sheetId="157" refreshError="1"/>
+      <sheetData sheetId="158" refreshError="1"/>
+      <sheetData sheetId="159" refreshError="1"/>
+      <sheetData sheetId="160" refreshError="1"/>
+      <sheetData sheetId="161" refreshError="1"/>
+      <sheetData sheetId="162" refreshError="1"/>
+      <sheetData sheetId="163" refreshError="1"/>
+      <sheetData sheetId="164" refreshError="1"/>
+      <sheetData sheetId="165" refreshError="1"/>
+      <sheetData sheetId="166" refreshError="1"/>
+      <sheetData sheetId="167" refreshError="1"/>
+      <sheetData sheetId="168" refreshError="1"/>
+      <sheetData sheetId="169" refreshError="1"/>
+      <sheetData sheetId="170" refreshError="1"/>
+      <sheetData sheetId="171" refreshError="1"/>
+      <sheetData sheetId="172" refreshError="1"/>
+      <sheetData sheetId="173" refreshError="1"/>
+      <sheetData sheetId="174" refreshError="1"/>
+      <sheetData sheetId="175" refreshError="1"/>
+      <sheetData sheetId="176" refreshError="1"/>
+      <sheetData sheetId="177" refreshError="1"/>
+      <sheetData sheetId="178" refreshError="1"/>
+      <sheetData sheetId="179" refreshError="1"/>
+      <sheetData sheetId="180" refreshError="1"/>
+      <sheetData sheetId="181" refreshError="1"/>
+      <sheetData sheetId="182" refreshError="1"/>
+      <sheetData sheetId="183" refreshError="1"/>
+      <sheetData sheetId="184" refreshError="1"/>
+      <sheetData sheetId="185" refreshError="1"/>
+      <sheetData sheetId="186" refreshError="1"/>
+      <sheetData sheetId="187" refreshError="1"/>
+      <sheetData sheetId="188" refreshError="1"/>
+      <sheetData sheetId="189" refreshError="1"/>
+      <sheetData sheetId="190" refreshError="1"/>
+      <sheetData sheetId="191" refreshError="1"/>
+      <sheetData sheetId="192" refreshError="1"/>
+      <sheetData sheetId="193" refreshError="1"/>
+      <sheetData sheetId="194" refreshError="1"/>
+      <sheetData sheetId="195" refreshError="1"/>
+      <sheetData sheetId="196" refreshError="1"/>
+      <sheetData sheetId="197" refreshError="1"/>
+      <sheetData sheetId="198" refreshError="1"/>
+      <sheetData sheetId="199" refreshError="1"/>
+      <sheetData sheetId="200" refreshError="1"/>
+      <sheetData sheetId="201" refreshError="1"/>
+      <sheetData sheetId="202" refreshError="1"/>
+      <sheetData sheetId="203" refreshError="1"/>
+      <sheetData sheetId="204" refreshError="1"/>
+      <sheetData sheetId="205" refreshError="1"/>
+      <sheetData sheetId="206" refreshError="1"/>
+      <sheetData sheetId="207" refreshError="1"/>
+      <sheetData sheetId="208" refreshError="1"/>
+      <sheetData sheetId="209" refreshError="1"/>
+      <sheetData sheetId="210" refreshError="1"/>
+      <sheetData sheetId="211"/>
+      <sheetData sheetId="212"/>
+      <sheetData sheetId="213"/>
+      <sheetData sheetId="214"/>
+      <sheetData sheetId="215"/>
+      <sheetData sheetId="216"/>
+      <sheetData sheetId="217"/>
+      <sheetData sheetId="218"/>
+      <sheetData sheetId="219"/>
+      <sheetData sheetId="220"/>
+      <sheetData sheetId="221"/>
+      <sheetData sheetId="222"/>
+      <sheetData sheetId="223"/>
+      <sheetData sheetId="224"/>
+      <sheetData sheetId="225"/>
+      <sheetData sheetId="226"/>
+      <sheetData sheetId="227"/>
+      <sheetData sheetId="228"/>
+      <sheetData sheetId="229"/>
+      <sheetData sheetId="230"/>
+      <sheetData sheetId="231"/>
+      <sheetData sheetId="232"/>
+      <sheetData sheetId="233"/>
+      <sheetData sheetId="234"/>
+      <sheetData sheetId="235"/>
+      <sheetData sheetId="236"/>
+      <sheetData sheetId="237"/>
+      <sheetData sheetId="238"/>
+      <sheetData sheetId="239"/>
+      <sheetData sheetId="240"/>
+      <sheetData sheetId="241"/>
+      <sheetData sheetId="242"/>
+      <sheetData sheetId="243"/>
+      <sheetData sheetId="244"/>
+      <sheetData sheetId="245"/>
+      <sheetData sheetId="246"/>
+      <sheetData sheetId="247"/>
+      <sheetData sheetId="248"/>
+      <sheetData sheetId="249"/>
+      <sheetData sheetId="250"/>
+      <sheetData sheetId="251"/>
+      <sheetData sheetId="252">
+        <row r="5">
+          <cell r="W5">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="253"/>
+      <sheetData sheetId="254"/>
+      <sheetData sheetId="255"/>
+      <sheetData sheetId="256"/>
+      <sheetData sheetId="257"/>
+      <sheetData sheetId="258"/>
+      <sheetData sheetId="259"/>
+      <sheetData sheetId="260"/>
+      <sheetData sheetId="261"/>
+      <sheetData sheetId="262"/>
+      <sheetData sheetId="263"/>
+      <sheetData sheetId="264"/>
+      <sheetData sheetId="265"/>
+      <sheetData sheetId="266"/>
+      <sheetData sheetId="267" refreshError="1"/>
+      <sheetData sheetId="268" refreshError="1"/>
+      <sheetData sheetId="269" refreshError="1"/>
+      <sheetData sheetId="270" refreshError="1"/>
+      <sheetData sheetId="271" refreshError="1"/>
+      <sheetData sheetId="272" refreshError="1"/>
+      <sheetData sheetId="273" refreshError="1"/>
+      <sheetData sheetId="274" refreshError="1"/>
+      <sheetData sheetId="275" refreshError="1"/>
+      <sheetData sheetId="276" refreshError="1"/>
+      <sheetData sheetId="277" refreshError="1"/>
+      <sheetData sheetId="278"/>
+      <sheetData sheetId="279"/>
+      <sheetData sheetId="280" refreshError="1"/>
+      <sheetData sheetId="281" refreshError="1"/>
+      <sheetData sheetId="282" refreshError="1"/>
+      <sheetData sheetId="283" refreshError="1"/>
+      <sheetData sheetId="284"/>
+      <sheetData sheetId="285"/>
+      <sheetData sheetId="286"/>
+      <sheetData sheetId="287"/>
+      <sheetData sheetId="288"/>
+      <sheetData sheetId="289"/>
+      <sheetData sheetId="290"/>
+      <sheetData sheetId="291"/>
+      <sheetData sheetId="292"/>
+      <sheetData sheetId="293"/>
+      <sheetData sheetId="294"/>
+      <sheetData sheetId="295"/>
+      <sheetData sheetId="296"/>
+      <sheetData sheetId="297"/>
+      <sheetData sheetId="298"/>
+      <sheetData sheetId="299"/>
+      <sheetData sheetId="300"/>
+      <sheetData sheetId="301"/>
+      <sheetData sheetId="302"/>
+      <sheetData sheetId="303"/>
+      <sheetData sheetId="304"/>
+      <sheetData sheetId="305"/>
+      <sheetData sheetId="306"/>
+      <sheetData sheetId="307"/>
+      <sheetData sheetId="308"/>
+      <sheetData sheetId="309"/>
+      <sheetData sheetId="310"/>
+      <sheetData sheetId="311"/>
+      <sheetData sheetId="312"/>
+      <sheetData sheetId="313"/>
+      <sheetData sheetId="314"/>
+      <sheetData sheetId="315"/>
+      <sheetData sheetId="316" refreshError="1"/>
+      <sheetData sheetId="317" refreshError="1"/>
+      <sheetData sheetId="318" refreshError="1"/>
+      <sheetData sheetId="319" refreshError="1"/>
+      <sheetData sheetId="320" refreshError="1"/>
+      <sheetData sheetId="321" refreshError="1"/>
+      <sheetData sheetId="322" refreshError="1"/>
+      <sheetData sheetId="323" refreshError="1"/>
+      <sheetData sheetId="324" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5027,264 +5565,264 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="1" customWidth="1"/>
     <col min="7" max="258" width="9" style="1"/>
-    <col min="259" max="259" width="10.875" style="1" customWidth="1"/>
+    <col min="259" max="259" width="10.88671875" style="1" customWidth="1"/>
     <col min="260" max="261" width="9" style="1"/>
-    <col min="262" max="262" width="9.5" style="1" customWidth="1"/>
+    <col min="262" max="262" width="9.44140625" style="1" customWidth="1"/>
     <col min="263" max="514" width="9" style="1"/>
-    <col min="515" max="515" width="10.875" style="1" customWidth="1"/>
+    <col min="515" max="515" width="10.88671875" style="1" customWidth="1"/>
     <col min="516" max="517" width="9" style="1"/>
-    <col min="518" max="518" width="9.5" style="1" customWidth="1"/>
+    <col min="518" max="518" width="9.44140625" style="1" customWidth="1"/>
     <col min="519" max="770" width="9" style="1"/>
-    <col min="771" max="771" width="10.875" style="1" customWidth="1"/>
+    <col min="771" max="771" width="10.88671875" style="1" customWidth="1"/>
     <col min="772" max="773" width="9" style="1"/>
-    <col min="774" max="774" width="9.5" style="1" customWidth="1"/>
+    <col min="774" max="774" width="9.44140625" style="1" customWidth="1"/>
     <col min="775" max="1026" width="9" style="1"/>
-    <col min="1027" max="1027" width="10.875" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="10.88671875" style="1" customWidth="1"/>
     <col min="1028" max="1029" width="9" style="1"/>
-    <col min="1030" max="1030" width="9.5" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="9.44140625" style="1" customWidth="1"/>
     <col min="1031" max="1282" width="9" style="1"/>
-    <col min="1283" max="1283" width="10.875" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="10.88671875" style="1" customWidth="1"/>
     <col min="1284" max="1285" width="9" style="1"/>
-    <col min="1286" max="1286" width="9.5" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="9.44140625" style="1" customWidth="1"/>
     <col min="1287" max="1538" width="9" style="1"/>
-    <col min="1539" max="1539" width="10.875" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="10.88671875" style="1" customWidth="1"/>
     <col min="1540" max="1541" width="9" style="1"/>
-    <col min="1542" max="1542" width="9.5" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="9.44140625" style="1" customWidth="1"/>
     <col min="1543" max="1794" width="9" style="1"/>
-    <col min="1795" max="1795" width="10.875" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="10.88671875" style="1" customWidth="1"/>
     <col min="1796" max="1797" width="9" style="1"/>
-    <col min="1798" max="1798" width="9.5" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="9.44140625" style="1" customWidth="1"/>
     <col min="1799" max="2050" width="9" style="1"/>
-    <col min="2051" max="2051" width="10.875" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="10.88671875" style="1" customWidth="1"/>
     <col min="2052" max="2053" width="9" style="1"/>
-    <col min="2054" max="2054" width="9.5" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="9.44140625" style="1" customWidth="1"/>
     <col min="2055" max="2306" width="9" style="1"/>
-    <col min="2307" max="2307" width="10.875" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="10.88671875" style="1" customWidth="1"/>
     <col min="2308" max="2309" width="9" style="1"/>
-    <col min="2310" max="2310" width="9.5" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="9.44140625" style="1" customWidth="1"/>
     <col min="2311" max="2562" width="9" style="1"/>
-    <col min="2563" max="2563" width="10.875" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="10.88671875" style="1" customWidth="1"/>
     <col min="2564" max="2565" width="9" style="1"/>
-    <col min="2566" max="2566" width="9.5" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="9.44140625" style="1" customWidth="1"/>
     <col min="2567" max="2818" width="9" style="1"/>
-    <col min="2819" max="2819" width="10.875" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="10.88671875" style="1" customWidth="1"/>
     <col min="2820" max="2821" width="9" style="1"/>
-    <col min="2822" max="2822" width="9.5" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="9.44140625" style="1" customWidth="1"/>
     <col min="2823" max="3074" width="9" style="1"/>
-    <col min="3075" max="3075" width="10.875" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="10.88671875" style="1" customWidth="1"/>
     <col min="3076" max="3077" width="9" style="1"/>
-    <col min="3078" max="3078" width="9.5" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="9.44140625" style="1" customWidth="1"/>
     <col min="3079" max="3330" width="9" style="1"/>
-    <col min="3331" max="3331" width="10.875" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="10.88671875" style="1" customWidth="1"/>
     <col min="3332" max="3333" width="9" style="1"/>
-    <col min="3334" max="3334" width="9.5" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="9.44140625" style="1" customWidth="1"/>
     <col min="3335" max="3586" width="9" style="1"/>
-    <col min="3587" max="3587" width="10.875" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="10.88671875" style="1" customWidth="1"/>
     <col min="3588" max="3589" width="9" style="1"/>
-    <col min="3590" max="3590" width="9.5" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="9.44140625" style="1" customWidth="1"/>
     <col min="3591" max="3842" width="9" style="1"/>
-    <col min="3843" max="3843" width="10.875" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="10.88671875" style="1" customWidth="1"/>
     <col min="3844" max="3845" width="9" style="1"/>
-    <col min="3846" max="3846" width="9.5" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="9.44140625" style="1" customWidth="1"/>
     <col min="3847" max="4098" width="9" style="1"/>
-    <col min="4099" max="4099" width="10.875" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="10.88671875" style="1" customWidth="1"/>
     <col min="4100" max="4101" width="9" style="1"/>
-    <col min="4102" max="4102" width="9.5" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="9.44140625" style="1" customWidth="1"/>
     <col min="4103" max="4354" width="9" style="1"/>
-    <col min="4355" max="4355" width="10.875" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="10.88671875" style="1" customWidth="1"/>
     <col min="4356" max="4357" width="9" style="1"/>
-    <col min="4358" max="4358" width="9.5" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="9.44140625" style="1" customWidth="1"/>
     <col min="4359" max="4610" width="9" style="1"/>
-    <col min="4611" max="4611" width="10.875" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="10.88671875" style="1" customWidth="1"/>
     <col min="4612" max="4613" width="9" style="1"/>
-    <col min="4614" max="4614" width="9.5" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="9.44140625" style="1" customWidth="1"/>
     <col min="4615" max="4866" width="9" style="1"/>
-    <col min="4867" max="4867" width="10.875" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="10.88671875" style="1" customWidth="1"/>
     <col min="4868" max="4869" width="9" style="1"/>
-    <col min="4870" max="4870" width="9.5" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="9.44140625" style="1" customWidth="1"/>
     <col min="4871" max="5122" width="9" style="1"/>
-    <col min="5123" max="5123" width="10.875" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="10.88671875" style="1" customWidth="1"/>
     <col min="5124" max="5125" width="9" style="1"/>
-    <col min="5126" max="5126" width="9.5" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="9.44140625" style="1" customWidth="1"/>
     <col min="5127" max="5378" width="9" style="1"/>
-    <col min="5379" max="5379" width="10.875" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="10.88671875" style="1" customWidth="1"/>
     <col min="5380" max="5381" width="9" style="1"/>
-    <col min="5382" max="5382" width="9.5" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="9.44140625" style="1" customWidth="1"/>
     <col min="5383" max="5634" width="9" style="1"/>
-    <col min="5635" max="5635" width="10.875" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="10.88671875" style="1" customWidth="1"/>
     <col min="5636" max="5637" width="9" style="1"/>
-    <col min="5638" max="5638" width="9.5" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="9.44140625" style="1" customWidth="1"/>
     <col min="5639" max="5890" width="9" style="1"/>
-    <col min="5891" max="5891" width="10.875" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="10.88671875" style="1" customWidth="1"/>
     <col min="5892" max="5893" width="9" style="1"/>
-    <col min="5894" max="5894" width="9.5" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="9.44140625" style="1" customWidth="1"/>
     <col min="5895" max="6146" width="9" style="1"/>
-    <col min="6147" max="6147" width="10.875" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="10.88671875" style="1" customWidth="1"/>
     <col min="6148" max="6149" width="9" style="1"/>
-    <col min="6150" max="6150" width="9.5" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="9.44140625" style="1" customWidth="1"/>
     <col min="6151" max="6402" width="9" style="1"/>
-    <col min="6403" max="6403" width="10.875" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="10.88671875" style="1" customWidth="1"/>
     <col min="6404" max="6405" width="9" style="1"/>
-    <col min="6406" max="6406" width="9.5" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="9.44140625" style="1" customWidth="1"/>
     <col min="6407" max="6658" width="9" style="1"/>
-    <col min="6659" max="6659" width="10.875" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="10.88671875" style="1" customWidth="1"/>
     <col min="6660" max="6661" width="9" style="1"/>
-    <col min="6662" max="6662" width="9.5" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="9.44140625" style="1" customWidth="1"/>
     <col min="6663" max="6914" width="9" style="1"/>
-    <col min="6915" max="6915" width="10.875" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="10.88671875" style="1" customWidth="1"/>
     <col min="6916" max="6917" width="9" style="1"/>
-    <col min="6918" max="6918" width="9.5" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="9.44140625" style="1" customWidth="1"/>
     <col min="6919" max="7170" width="9" style="1"/>
-    <col min="7171" max="7171" width="10.875" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="10.88671875" style="1" customWidth="1"/>
     <col min="7172" max="7173" width="9" style="1"/>
-    <col min="7174" max="7174" width="9.5" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="9.44140625" style="1" customWidth="1"/>
     <col min="7175" max="7426" width="9" style="1"/>
-    <col min="7427" max="7427" width="10.875" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="10.88671875" style="1" customWidth="1"/>
     <col min="7428" max="7429" width="9" style="1"/>
-    <col min="7430" max="7430" width="9.5" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="9.44140625" style="1" customWidth="1"/>
     <col min="7431" max="7682" width="9" style="1"/>
-    <col min="7683" max="7683" width="10.875" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="10.88671875" style="1" customWidth="1"/>
     <col min="7684" max="7685" width="9" style="1"/>
-    <col min="7686" max="7686" width="9.5" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="9.44140625" style="1" customWidth="1"/>
     <col min="7687" max="7938" width="9" style="1"/>
-    <col min="7939" max="7939" width="10.875" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="10.88671875" style="1" customWidth="1"/>
     <col min="7940" max="7941" width="9" style="1"/>
-    <col min="7942" max="7942" width="9.5" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="9.44140625" style="1" customWidth="1"/>
     <col min="7943" max="8194" width="9" style="1"/>
-    <col min="8195" max="8195" width="10.875" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="10.88671875" style="1" customWidth="1"/>
     <col min="8196" max="8197" width="9" style="1"/>
-    <col min="8198" max="8198" width="9.5" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="9.44140625" style="1" customWidth="1"/>
     <col min="8199" max="8450" width="9" style="1"/>
-    <col min="8451" max="8451" width="10.875" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="10.88671875" style="1" customWidth="1"/>
     <col min="8452" max="8453" width="9" style="1"/>
-    <col min="8454" max="8454" width="9.5" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="9.44140625" style="1" customWidth="1"/>
     <col min="8455" max="8706" width="9" style="1"/>
-    <col min="8707" max="8707" width="10.875" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="10.88671875" style="1" customWidth="1"/>
     <col min="8708" max="8709" width="9" style="1"/>
-    <col min="8710" max="8710" width="9.5" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="9.44140625" style="1" customWidth="1"/>
     <col min="8711" max="8962" width="9" style="1"/>
-    <col min="8963" max="8963" width="10.875" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="10.88671875" style="1" customWidth="1"/>
     <col min="8964" max="8965" width="9" style="1"/>
-    <col min="8966" max="8966" width="9.5" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="9.44140625" style="1" customWidth="1"/>
     <col min="8967" max="9218" width="9" style="1"/>
-    <col min="9219" max="9219" width="10.875" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="10.88671875" style="1" customWidth="1"/>
     <col min="9220" max="9221" width="9" style="1"/>
-    <col min="9222" max="9222" width="9.5" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="9.44140625" style="1" customWidth="1"/>
     <col min="9223" max="9474" width="9" style="1"/>
-    <col min="9475" max="9475" width="10.875" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="10.88671875" style="1" customWidth="1"/>
     <col min="9476" max="9477" width="9" style="1"/>
-    <col min="9478" max="9478" width="9.5" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="9.44140625" style="1" customWidth="1"/>
     <col min="9479" max="9730" width="9" style="1"/>
-    <col min="9731" max="9731" width="10.875" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="10.88671875" style="1" customWidth="1"/>
     <col min="9732" max="9733" width="9" style="1"/>
-    <col min="9734" max="9734" width="9.5" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="9.44140625" style="1" customWidth="1"/>
     <col min="9735" max="9986" width="9" style="1"/>
-    <col min="9987" max="9987" width="10.875" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="10.88671875" style="1" customWidth="1"/>
     <col min="9988" max="9989" width="9" style="1"/>
-    <col min="9990" max="9990" width="9.5" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="9.44140625" style="1" customWidth="1"/>
     <col min="9991" max="10242" width="9" style="1"/>
-    <col min="10243" max="10243" width="10.875" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="10.88671875" style="1" customWidth="1"/>
     <col min="10244" max="10245" width="9" style="1"/>
-    <col min="10246" max="10246" width="9.5" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="9.44140625" style="1" customWidth="1"/>
     <col min="10247" max="10498" width="9" style="1"/>
-    <col min="10499" max="10499" width="10.875" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="10.88671875" style="1" customWidth="1"/>
     <col min="10500" max="10501" width="9" style="1"/>
-    <col min="10502" max="10502" width="9.5" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="9.44140625" style="1" customWidth="1"/>
     <col min="10503" max="10754" width="9" style="1"/>
-    <col min="10755" max="10755" width="10.875" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="10.88671875" style="1" customWidth="1"/>
     <col min="10756" max="10757" width="9" style="1"/>
-    <col min="10758" max="10758" width="9.5" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="9.44140625" style="1" customWidth="1"/>
     <col min="10759" max="11010" width="9" style="1"/>
-    <col min="11011" max="11011" width="10.875" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="10.88671875" style="1" customWidth="1"/>
     <col min="11012" max="11013" width="9" style="1"/>
-    <col min="11014" max="11014" width="9.5" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="9.44140625" style="1" customWidth="1"/>
     <col min="11015" max="11266" width="9" style="1"/>
-    <col min="11267" max="11267" width="10.875" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="10.88671875" style="1" customWidth="1"/>
     <col min="11268" max="11269" width="9" style="1"/>
-    <col min="11270" max="11270" width="9.5" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="9.44140625" style="1" customWidth="1"/>
     <col min="11271" max="11522" width="9" style="1"/>
-    <col min="11523" max="11523" width="10.875" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="10.88671875" style="1" customWidth="1"/>
     <col min="11524" max="11525" width="9" style="1"/>
-    <col min="11526" max="11526" width="9.5" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="9.44140625" style="1" customWidth="1"/>
     <col min="11527" max="11778" width="9" style="1"/>
-    <col min="11779" max="11779" width="10.875" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="10.88671875" style="1" customWidth="1"/>
     <col min="11780" max="11781" width="9" style="1"/>
-    <col min="11782" max="11782" width="9.5" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="9.44140625" style="1" customWidth="1"/>
     <col min="11783" max="12034" width="9" style="1"/>
-    <col min="12035" max="12035" width="10.875" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="10.88671875" style="1" customWidth="1"/>
     <col min="12036" max="12037" width="9" style="1"/>
-    <col min="12038" max="12038" width="9.5" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="9.44140625" style="1" customWidth="1"/>
     <col min="12039" max="12290" width="9" style="1"/>
-    <col min="12291" max="12291" width="10.875" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="10.88671875" style="1" customWidth="1"/>
     <col min="12292" max="12293" width="9" style="1"/>
-    <col min="12294" max="12294" width="9.5" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="9.44140625" style="1" customWidth="1"/>
     <col min="12295" max="12546" width="9" style="1"/>
-    <col min="12547" max="12547" width="10.875" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="10.88671875" style="1" customWidth="1"/>
     <col min="12548" max="12549" width="9" style="1"/>
-    <col min="12550" max="12550" width="9.5" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="9.44140625" style="1" customWidth="1"/>
     <col min="12551" max="12802" width="9" style="1"/>
-    <col min="12803" max="12803" width="10.875" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="10.88671875" style="1" customWidth="1"/>
     <col min="12804" max="12805" width="9" style="1"/>
-    <col min="12806" max="12806" width="9.5" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="9.44140625" style="1" customWidth="1"/>
     <col min="12807" max="13058" width="9" style="1"/>
-    <col min="13059" max="13059" width="10.875" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="10.88671875" style="1" customWidth="1"/>
     <col min="13060" max="13061" width="9" style="1"/>
-    <col min="13062" max="13062" width="9.5" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="9.44140625" style="1" customWidth="1"/>
     <col min="13063" max="13314" width="9" style="1"/>
-    <col min="13315" max="13315" width="10.875" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="10.88671875" style="1" customWidth="1"/>
     <col min="13316" max="13317" width="9" style="1"/>
-    <col min="13318" max="13318" width="9.5" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="9.44140625" style="1" customWidth="1"/>
     <col min="13319" max="13570" width="9" style="1"/>
-    <col min="13571" max="13571" width="10.875" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="10.88671875" style="1" customWidth="1"/>
     <col min="13572" max="13573" width="9" style="1"/>
-    <col min="13574" max="13574" width="9.5" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="9.44140625" style="1" customWidth="1"/>
     <col min="13575" max="13826" width="9" style="1"/>
-    <col min="13827" max="13827" width="10.875" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="10.88671875" style="1" customWidth="1"/>
     <col min="13828" max="13829" width="9" style="1"/>
-    <col min="13830" max="13830" width="9.5" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="9.44140625" style="1" customWidth="1"/>
     <col min="13831" max="14082" width="9" style="1"/>
-    <col min="14083" max="14083" width="10.875" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="10.88671875" style="1" customWidth="1"/>
     <col min="14084" max="14085" width="9" style="1"/>
-    <col min="14086" max="14086" width="9.5" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="9.44140625" style="1" customWidth="1"/>
     <col min="14087" max="14338" width="9" style="1"/>
-    <col min="14339" max="14339" width="10.875" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="10.88671875" style="1" customWidth="1"/>
     <col min="14340" max="14341" width="9" style="1"/>
-    <col min="14342" max="14342" width="9.5" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="9.44140625" style="1" customWidth="1"/>
     <col min="14343" max="14594" width="9" style="1"/>
-    <col min="14595" max="14595" width="10.875" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="10.88671875" style="1" customWidth="1"/>
     <col min="14596" max="14597" width="9" style="1"/>
-    <col min="14598" max="14598" width="9.5" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="9.44140625" style="1" customWidth="1"/>
     <col min="14599" max="14850" width="9" style="1"/>
-    <col min="14851" max="14851" width="10.875" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="10.88671875" style="1" customWidth="1"/>
     <col min="14852" max="14853" width="9" style="1"/>
-    <col min="14854" max="14854" width="9.5" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="9.44140625" style="1" customWidth="1"/>
     <col min="14855" max="15106" width="9" style="1"/>
-    <col min="15107" max="15107" width="10.875" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="10.88671875" style="1" customWidth="1"/>
     <col min="15108" max="15109" width="9" style="1"/>
-    <col min="15110" max="15110" width="9.5" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="9.44140625" style="1" customWidth="1"/>
     <col min="15111" max="15362" width="9" style="1"/>
-    <col min="15363" max="15363" width="10.875" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="10.88671875" style="1" customWidth="1"/>
     <col min="15364" max="15365" width="9" style="1"/>
-    <col min="15366" max="15366" width="9.5" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="9.44140625" style="1" customWidth="1"/>
     <col min="15367" max="15618" width="9" style="1"/>
-    <col min="15619" max="15619" width="10.875" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="10.88671875" style="1" customWidth="1"/>
     <col min="15620" max="15621" width="9" style="1"/>
-    <col min="15622" max="15622" width="9.5" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="9.44140625" style="1" customWidth="1"/>
     <col min="15623" max="15874" width="9" style="1"/>
-    <col min="15875" max="15875" width="10.875" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="10.88671875" style="1" customWidth="1"/>
     <col min="15876" max="15877" width="9" style="1"/>
-    <col min="15878" max="15878" width="9.5" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="9.44140625" style="1" customWidth="1"/>
     <col min="15879" max="16130" width="9" style="1"/>
-    <col min="16131" max="16131" width="10.875" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="10.88671875" style="1" customWidth="1"/>
     <col min="16132" max="16133" width="9" style="1"/>
-    <col min="16134" max="16134" width="9.5" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="9.44140625" style="1" customWidth="1"/>
     <col min="16135" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5292,8 +5830,8 @@
       <c r="A1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -5301,7 +5839,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="28.2">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -5309,11 +5847,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="28.2">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="28.2">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
@@ -5321,14 +5859,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="28.2">
       <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="28.5">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="28.2">
       <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -5361,30 +5899,30 @@
       <c r="C15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="108"/>
+      <c r="E15" s="115"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" ht="12">
       <c r="A16" s="14"/>
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="116">
         <v>44853</v>
       </c>
-      <c r="E16" s="108"/>
+      <c r="E16" s="115"/>
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" ht="12">
       <c r="A17" s="15"/>
       <c r="C17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="109">
-        <v>45251</v>
-      </c>
-      <c r="E17" s="108"/>
+      <c r="D17" s="116">
+        <v>45687</v>
+      </c>
+      <c r="E17" s="115"/>
     </row>
     <row r="18" spans="1:5" s="6" customFormat="1" ht="12">
       <c r="A18" s="14"/>
@@ -5401,10 +5939,10 @@
       <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="104" t="s">
-        <v>282</v>
-      </c>
-      <c r="E19" s="105"/>
+      <c r="D19" s="111" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" s="112"/>
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" ht="12">
       <c r="A20" s="16"/>
@@ -5425,15 +5963,15 @@
       <c r="C25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" ht="12">
       <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
     </row>
     <row r="27" spans="1:5" s="6" customFormat="1" ht="12">
       <c r="A27" s="16"/>
@@ -5561,484 +6099,484 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="31" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="6" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="6"/>
-    <col min="257" max="257" width="5.5" style="6" customWidth="1"/>
-    <col min="258" max="258" width="10.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="6" customWidth="1"/>
+    <col min="7" max="256" width="8.109375" style="6"/>
+    <col min="257" max="257" width="5.44140625" style="6" customWidth="1"/>
+    <col min="258" max="258" width="10.6640625" style="6" customWidth="1"/>
     <col min="259" max="259" width="31" style="6" customWidth="1"/>
-    <col min="260" max="260" width="6.875" style="6" customWidth="1"/>
-    <col min="261" max="261" width="29.5" style="6" customWidth="1"/>
-    <col min="262" max="262" width="9.875" style="6" customWidth="1"/>
-    <col min="263" max="512" width="8.125" style="6"/>
-    <col min="513" max="513" width="5.5" style="6" customWidth="1"/>
-    <col min="514" max="514" width="10.625" style="6" customWidth="1"/>
+    <col min="260" max="260" width="6.88671875" style="6" customWidth="1"/>
+    <col min="261" max="261" width="29.44140625" style="6" customWidth="1"/>
+    <col min="262" max="262" width="9.88671875" style="6" customWidth="1"/>
+    <col min="263" max="512" width="8.109375" style="6"/>
+    <col min="513" max="513" width="5.44140625" style="6" customWidth="1"/>
+    <col min="514" max="514" width="10.6640625" style="6" customWidth="1"/>
     <col min="515" max="515" width="31" style="6" customWidth="1"/>
-    <col min="516" max="516" width="6.875" style="6" customWidth="1"/>
-    <col min="517" max="517" width="29.5" style="6" customWidth="1"/>
-    <col min="518" max="518" width="9.875" style="6" customWidth="1"/>
-    <col min="519" max="768" width="8.125" style="6"/>
-    <col min="769" max="769" width="5.5" style="6" customWidth="1"/>
-    <col min="770" max="770" width="10.625" style="6" customWidth="1"/>
+    <col min="516" max="516" width="6.88671875" style="6" customWidth="1"/>
+    <col min="517" max="517" width="29.44140625" style="6" customWidth="1"/>
+    <col min="518" max="518" width="9.88671875" style="6" customWidth="1"/>
+    <col min="519" max="768" width="8.109375" style="6"/>
+    <col min="769" max="769" width="5.44140625" style="6" customWidth="1"/>
+    <col min="770" max="770" width="10.6640625" style="6" customWidth="1"/>
     <col min="771" max="771" width="31" style="6" customWidth="1"/>
-    <col min="772" max="772" width="6.875" style="6" customWidth="1"/>
-    <col min="773" max="773" width="29.5" style="6" customWidth="1"/>
-    <col min="774" max="774" width="9.875" style="6" customWidth="1"/>
-    <col min="775" max="1024" width="8.125" style="6"/>
-    <col min="1025" max="1025" width="5.5" style="6" customWidth="1"/>
-    <col min="1026" max="1026" width="10.625" style="6" customWidth="1"/>
+    <col min="772" max="772" width="6.88671875" style="6" customWidth="1"/>
+    <col min="773" max="773" width="29.44140625" style="6" customWidth="1"/>
+    <col min="774" max="774" width="9.88671875" style="6" customWidth="1"/>
+    <col min="775" max="1024" width="8.109375" style="6"/>
+    <col min="1025" max="1025" width="5.44140625" style="6" customWidth="1"/>
+    <col min="1026" max="1026" width="10.6640625" style="6" customWidth="1"/>
     <col min="1027" max="1027" width="31" style="6" customWidth="1"/>
-    <col min="1028" max="1028" width="6.875" style="6" customWidth="1"/>
-    <col min="1029" max="1029" width="29.5" style="6" customWidth="1"/>
-    <col min="1030" max="1030" width="9.875" style="6" customWidth="1"/>
-    <col min="1031" max="1280" width="8.125" style="6"/>
-    <col min="1281" max="1281" width="5.5" style="6" customWidth="1"/>
-    <col min="1282" max="1282" width="10.625" style="6" customWidth="1"/>
+    <col min="1028" max="1028" width="6.88671875" style="6" customWidth="1"/>
+    <col min="1029" max="1029" width="29.44140625" style="6" customWidth="1"/>
+    <col min="1030" max="1030" width="9.88671875" style="6" customWidth="1"/>
+    <col min="1031" max="1280" width="8.109375" style="6"/>
+    <col min="1281" max="1281" width="5.44140625" style="6" customWidth="1"/>
+    <col min="1282" max="1282" width="10.6640625" style="6" customWidth="1"/>
     <col min="1283" max="1283" width="31" style="6" customWidth="1"/>
-    <col min="1284" max="1284" width="6.875" style="6" customWidth="1"/>
-    <col min="1285" max="1285" width="29.5" style="6" customWidth="1"/>
-    <col min="1286" max="1286" width="9.875" style="6" customWidth="1"/>
-    <col min="1287" max="1536" width="8.125" style="6"/>
-    <col min="1537" max="1537" width="5.5" style="6" customWidth="1"/>
-    <col min="1538" max="1538" width="10.625" style="6" customWidth="1"/>
+    <col min="1284" max="1284" width="6.88671875" style="6" customWidth="1"/>
+    <col min="1285" max="1285" width="29.44140625" style="6" customWidth="1"/>
+    <col min="1286" max="1286" width="9.88671875" style="6" customWidth="1"/>
+    <col min="1287" max="1536" width="8.109375" style="6"/>
+    <col min="1537" max="1537" width="5.44140625" style="6" customWidth="1"/>
+    <col min="1538" max="1538" width="10.6640625" style="6" customWidth="1"/>
     <col min="1539" max="1539" width="31" style="6" customWidth="1"/>
-    <col min="1540" max="1540" width="6.875" style="6" customWidth="1"/>
-    <col min="1541" max="1541" width="29.5" style="6" customWidth="1"/>
-    <col min="1542" max="1542" width="9.875" style="6" customWidth="1"/>
-    <col min="1543" max="1792" width="8.125" style="6"/>
-    <col min="1793" max="1793" width="5.5" style="6" customWidth="1"/>
-    <col min="1794" max="1794" width="10.625" style="6" customWidth="1"/>
+    <col min="1540" max="1540" width="6.88671875" style="6" customWidth="1"/>
+    <col min="1541" max="1541" width="29.44140625" style="6" customWidth="1"/>
+    <col min="1542" max="1542" width="9.88671875" style="6" customWidth="1"/>
+    <col min="1543" max="1792" width="8.109375" style="6"/>
+    <col min="1793" max="1793" width="5.44140625" style="6" customWidth="1"/>
+    <col min="1794" max="1794" width="10.6640625" style="6" customWidth="1"/>
     <col min="1795" max="1795" width="31" style="6" customWidth="1"/>
-    <col min="1796" max="1796" width="6.875" style="6" customWidth="1"/>
-    <col min="1797" max="1797" width="29.5" style="6" customWidth="1"/>
-    <col min="1798" max="1798" width="9.875" style="6" customWidth="1"/>
-    <col min="1799" max="2048" width="8.125" style="6"/>
-    <col min="2049" max="2049" width="5.5" style="6" customWidth="1"/>
-    <col min="2050" max="2050" width="10.625" style="6" customWidth="1"/>
+    <col min="1796" max="1796" width="6.88671875" style="6" customWidth="1"/>
+    <col min="1797" max="1797" width="29.44140625" style="6" customWidth="1"/>
+    <col min="1798" max="1798" width="9.88671875" style="6" customWidth="1"/>
+    <col min="1799" max="2048" width="8.109375" style="6"/>
+    <col min="2049" max="2049" width="5.44140625" style="6" customWidth="1"/>
+    <col min="2050" max="2050" width="10.6640625" style="6" customWidth="1"/>
     <col min="2051" max="2051" width="31" style="6" customWidth="1"/>
-    <col min="2052" max="2052" width="6.875" style="6" customWidth="1"/>
-    <col min="2053" max="2053" width="29.5" style="6" customWidth="1"/>
-    <col min="2054" max="2054" width="9.875" style="6" customWidth="1"/>
-    <col min="2055" max="2304" width="8.125" style="6"/>
-    <col min="2305" max="2305" width="5.5" style="6" customWidth="1"/>
-    <col min="2306" max="2306" width="10.625" style="6" customWidth="1"/>
+    <col min="2052" max="2052" width="6.88671875" style="6" customWidth="1"/>
+    <col min="2053" max="2053" width="29.44140625" style="6" customWidth="1"/>
+    <col min="2054" max="2054" width="9.88671875" style="6" customWidth="1"/>
+    <col min="2055" max="2304" width="8.109375" style="6"/>
+    <col min="2305" max="2305" width="5.44140625" style="6" customWidth="1"/>
+    <col min="2306" max="2306" width="10.6640625" style="6" customWidth="1"/>
     <col min="2307" max="2307" width="31" style="6" customWidth="1"/>
-    <col min="2308" max="2308" width="6.875" style="6" customWidth="1"/>
-    <col min="2309" max="2309" width="29.5" style="6" customWidth="1"/>
-    <col min="2310" max="2310" width="9.875" style="6" customWidth="1"/>
-    <col min="2311" max="2560" width="8.125" style="6"/>
-    <col min="2561" max="2561" width="5.5" style="6" customWidth="1"/>
-    <col min="2562" max="2562" width="10.625" style="6" customWidth="1"/>
+    <col min="2308" max="2308" width="6.88671875" style="6" customWidth="1"/>
+    <col min="2309" max="2309" width="29.44140625" style="6" customWidth="1"/>
+    <col min="2310" max="2310" width="9.88671875" style="6" customWidth="1"/>
+    <col min="2311" max="2560" width="8.109375" style="6"/>
+    <col min="2561" max="2561" width="5.44140625" style="6" customWidth="1"/>
+    <col min="2562" max="2562" width="10.6640625" style="6" customWidth="1"/>
     <col min="2563" max="2563" width="31" style="6" customWidth="1"/>
-    <col min="2564" max="2564" width="6.875" style="6" customWidth="1"/>
-    <col min="2565" max="2565" width="29.5" style="6" customWidth="1"/>
-    <col min="2566" max="2566" width="9.875" style="6" customWidth="1"/>
-    <col min="2567" max="2816" width="8.125" style="6"/>
-    <col min="2817" max="2817" width="5.5" style="6" customWidth="1"/>
-    <col min="2818" max="2818" width="10.625" style="6" customWidth="1"/>
+    <col min="2564" max="2564" width="6.88671875" style="6" customWidth="1"/>
+    <col min="2565" max="2565" width="29.44140625" style="6" customWidth="1"/>
+    <col min="2566" max="2566" width="9.88671875" style="6" customWidth="1"/>
+    <col min="2567" max="2816" width="8.109375" style="6"/>
+    <col min="2817" max="2817" width="5.44140625" style="6" customWidth="1"/>
+    <col min="2818" max="2818" width="10.6640625" style="6" customWidth="1"/>
     <col min="2819" max="2819" width="31" style="6" customWidth="1"/>
-    <col min="2820" max="2820" width="6.875" style="6" customWidth="1"/>
-    <col min="2821" max="2821" width="29.5" style="6" customWidth="1"/>
-    <col min="2822" max="2822" width="9.875" style="6" customWidth="1"/>
-    <col min="2823" max="3072" width="8.125" style="6"/>
-    <col min="3073" max="3073" width="5.5" style="6" customWidth="1"/>
-    <col min="3074" max="3074" width="10.625" style="6" customWidth="1"/>
+    <col min="2820" max="2820" width="6.88671875" style="6" customWidth="1"/>
+    <col min="2821" max="2821" width="29.44140625" style="6" customWidth="1"/>
+    <col min="2822" max="2822" width="9.88671875" style="6" customWidth="1"/>
+    <col min="2823" max="3072" width="8.109375" style="6"/>
+    <col min="3073" max="3073" width="5.44140625" style="6" customWidth="1"/>
+    <col min="3074" max="3074" width="10.6640625" style="6" customWidth="1"/>
     <col min="3075" max="3075" width="31" style="6" customWidth="1"/>
-    <col min="3076" max="3076" width="6.875" style="6" customWidth="1"/>
-    <col min="3077" max="3077" width="29.5" style="6" customWidth="1"/>
-    <col min="3078" max="3078" width="9.875" style="6" customWidth="1"/>
-    <col min="3079" max="3328" width="8.125" style="6"/>
-    <col min="3329" max="3329" width="5.5" style="6" customWidth="1"/>
-    <col min="3330" max="3330" width="10.625" style="6" customWidth="1"/>
+    <col min="3076" max="3076" width="6.88671875" style="6" customWidth="1"/>
+    <col min="3077" max="3077" width="29.44140625" style="6" customWidth="1"/>
+    <col min="3078" max="3078" width="9.88671875" style="6" customWidth="1"/>
+    <col min="3079" max="3328" width="8.109375" style="6"/>
+    <col min="3329" max="3329" width="5.44140625" style="6" customWidth="1"/>
+    <col min="3330" max="3330" width="10.6640625" style="6" customWidth="1"/>
     <col min="3331" max="3331" width="31" style="6" customWidth="1"/>
-    <col min="3332" max="3332" width="6.875" style="6" customWidth="1"/>
-    <col min="3333" max="3333" width="29.5" style="6" customWidth="1"/>
-    <col min="3334" max="3334" width="9.875" style="6" customWidth="1"/>
-    <col min="3335" max="3584" width="8.125" style="6"/>
-    <col min="3585" max="3585" width="5.5" style="6" customWidth="1"/>
-    <col min="3586" max="3586" width="10.625" style="6" customWidth="1"/>
+    <col min="3332" max="3332" width="6.88671875" style="6" customWidth="1"/>
+    <col min="3333" max="3333" width="29.44140625" style="6" customWidth="1"/>
+    <col min="3334" max="3334" width="9.88671875" style="6" customWidth="1"/>
+    <col min="3335" max="3584" width="8.109375" style="6"/>
+    <col min="3585" max="3585" width="5.44140625" style="6" customWidth="1"/>
+    <col min="3586" max="3586" width="10.6640625" style="6" customWidth="1"/>
     <col min="3587" max="3587" width="31" style="6" customWidth="1"/>
-    <col min="3588" max="3588" width="6.875" style="6" customWidth="1"/>
-    <col min="3589" max="3589" width="29.5" style="6" customWidth="1"/>
-    <col min="3590" max="3590" width="9.875" style="6" customWidth="1"/>
-    <col min="3591" max="3840" width="8.125" style="6"/>
-    <col min="3841" max="3841" width="5.5" style="6" customWidth="1"/>
-    <col min="3842" max="3842" width="10.625" style="6" customWidth="1"/>
+    <col min="3588" max="3588" width="6.88671875" style="6" customWidth="1"/>
+    <col min="3589" max="3589" width="29.44140625" style="6" customWidth="1"/>
+    <col min="3590" max="3590" width="9.88671875" style="6" customWidth="1"/>
+    <col min="3591" max="3840" width="8.109375" style="6"/>
+    <col min="3841" max="3841" width="5.44140625" style="6" customWidth="1"/>
+    <col min="3842" max="3842" width="10.6640625" style="6" customWidth="1"/>
     <col min="3843" max="3843" width="31" style="6" customWidth="1"/>
-    <col min="3844" max="3844" width="6.875" style="6" customWidth="1"/>
-    <col min="3845" max="3845" width="29.5" style="6" customWidth="1"/>
-    <col min="3846" max="3846" width="9.875" style="6" customWidth="1"/>
-    <col min="3847" max="4096" width="8.125" style="6"/>
-    <col min="4097" max="4097" width="5.5" style="6" customWidth="1"/>
-    <col min="4098" max="4098" width="10.625" style="6" customWidth="1"/>
+    <col min="3844" max="3844" width="6.88671875" style="6" customWidth="1"/>
+    <col min="3845" max="3845" width="29.44140625" style="6" customWidth="1"/>
+    <col min="3846" max="3846" width="9.88671875" style="6" customWidth="1"/>
+    <col min="3847" max="4096" width="8.109375" style="6"/>
+    <col min="4097" max="4097" width="5.44140625" style="6" customWidth="1"/>
+    <col min="4098" max="4098" width="10.6640625" style="6" customWidth="1"/>
     <col min="4099" max="4099" width="31" style="6" customWidth="1"/>
-    <col min="4100" max="4100" width="6.875" style="6" customWidth="1"/>
-    <col min="4101" max="4101" width="29.5" style="6" customWidth="1"/>
-    <col min="4102" max="4102" width="9.875" style="6" customWidth="1"/>
-    <col min="4103" max="4352" width="8.125" style="6"/>
-    <col min="4353" max="4353" width="5.5" style="6" customWidth="1"/>
-    <col min="4354" max="4354" width="10.625" style="6" customWidth="1"/>
+    <col min="4100" max="4100" width="6.88671875" style="6" customWidth="1"/>
+    <col min="4101" max="4101" width="29.44140625" style="6" customWidth="1"/>
+    <col min="4102" max="4102" width="9.88671875" style="6" customWidth="1"/>
+    <col min="4103" max="4352" width="8.109375" style="6"/>
+    <col min="4353" max="4353" width="5.44140625" style="6" customWidth="1"/>
+    <col min="4354" max="4354" width="10.6640625" style="6" customWidth="1"/>
     <col min="4355" max="4355" width="31" style="6" customWidth="1"/>
-    <col min="4356" max="4356" width="6.875" style="6" customWidth="1"/>
-    <col min="4357" max="4357" width="29.5" style="6" customWidth="1"/>
-    <col min="4358" max="4358" width="9.875" style="6" customWidth="1"/>
-    <col min="4359" max="4608" width="8.125" style="6"/>
-    <col min="4609" max="4609" width="5.5" style="6" customWidth="1"/>
-    <col min="4610" max="4610" width="10.625" style="6" customWidth="1"/>
+    <col min="4356" max="4356" width="6.88671875" style="6" customWidth="1"/>
+    <col min="4357" max="4357" width="29.44140625" style="6" customWidth="1"/>
+    <col min="4358" max="4358" width="9.88671875" style="6" customWidth="1"/>
+    <col min="4359" max="4608" width="8.109375" style="6"/>
+    <col min="4609" max="4609" width="5.44140625" style="6" customWidth="1"/>
+    <col min="4610" max="4610" width="10.6640625" style="6" customWidth="1"/>
     <col min="4611" max="4611" width="31" style="6" customWidth="1"/>
-    <col min="4612" max="4612" width="6.875" style="6" customWidth="1"/>
-    <col min="4613" max="4613" width="29.5" style="6" customWidth="1"/>
-    <col min="4614" max="4614" width="9.875" style="6" customWidth="1"/>
-    <col min="4615" max="4864" width="8.125" style="6"/>
-    <col min="4865" max="4865" width="5.5" style="6" customWidth="1"/>
-    <col min="4866" max="4866" width="10.625" style="6" customWidth="1"/>
+    <col min="4612" max="4612" width="6.88671875" style="6" customWidth="1"/>
+    <col min="4613" max="4613" width="29.44140625" style="6" customWidth="1"/>
+    <col min="4614" max="4614" width="9.88671875" style="6" customWidth="1"/>
+    <col min="4615" max="4864" width="8.109375" style="6"/>
+    <col min="4865" max="4865" width="5.44140625" style="6" customWidth="1"/>
+    <col min="4866" max="4866" width="10.6640625" style="6" customWidth="1"/>
     <col min="4867" max="4867" width="31" style="6" customWidth="1"/>
-    <col min="4868" max="4868" width="6.875" style="6" customWidth="1"/>
-    <col min="4869" max="4869" width="29.5" style="6" customWidth="1"/>
-    <col min="4870" max="4870" width="9.875" style="6" customWidth="1"/>
-    <col min="4871" max="5120" width="8.125" style="6"/>
-    <col min="5121" max="5121" width="5.5" style="6" customWidth="1"/>
-    <col min="5122" max="5122" width="10.625" style="6" customWidth="1"/>
+    <col min="4868" max="4868" width="6.88671875" style="6" customWidth="1"/>
+    <col min="4869" max="4869" width="29.44140625" style="6" customWidth="1"/>
+    <col min="4870" max="4870" width="9.88671875" style="6" customWidth="1"/>
+    <col min="4871" max="5120" width="8.109375" style="6"/>
+    <col min="5121" max="5121" width="5.44140625" style="6" customWidth="1"/>
+    <col min="5122" max="5122" width="10.6640625" style="6" customWidth="1"/>
     <col min="5123" max="5123" width="31" style="6" customWidth="1"/>
-    <col min="5124" max="5124" width="6.875" style="6" customWidth="1"/>
-    <col min="5125" max="5125" width="29.5" style="6" customWidth="1"/>
-    <col min="5126" max="5126" width="9.875" style="6" customWidth="1"/>
-    <col min="5127" max="5376" width="8.125" style="6"/>
-    <col min="5377" max="5377" width="5.5" style="6" customWidth="1"/>
-    <col min="5378" max="5378" width="10.625" style="6" customWidth="1"/>
+    <col min="5124" max="5124" width="6.88671875" style="6" customWidth="1"/>
+    <col min="5125" max="5125" width="29.44140625" style="6" customWidth="1"/>
+    <col min="5126" max="5126" width="9.88671875" style="6" customWidth="1"/>
+    <col min="5127" max="5376" width="8.109375" style="6"/>
+    <col min="5377" max="5377" width="5.44140625" style="6" customWidth="1"/>
+    <col min="5378" max="5378" width="10.6640625" style="6" customWidth="1"/>
     <col min="5379" max="5379" width="31" style="6" customWidth="1"/>
-    <col min="5380" max="5380" width="6.875" style="6" customWidth="1"/>
-    <col min="5381" max="5381" width="29.5" style="6" customWidth="1"/>
-    <col min="5382" max="5382" width="9.875" style="6" customWidth="1"/>
-    <col min="5383" max="5632" width="8.125" style="6"/>
-    <col min="5633" max="5633" width="5.5" style="6" customWidth="1"/>
-    <col min="5634" max="5634" width="10.625" style="6" customWidth="1"/>
+    <col min="5380" max="5380" width="6.88671875" style="6" customWidth="1"/>
+    <col min="5381" max="5381" width="29.44140625" style="6" customWidth="1"/>
+    <col min="5382" max="5382" width="9.88671875" style="6" customWidth="1"/>
+    <col min="5383" max="5632" width="8.109375" style="6"/>
+    <col min="5633" max="5633" width="5.44140625" style="6" customWidth="1"/>
+    <col min="5634" max="5634" width="10.6640625" style="6" customWidth="1"/>
     <col min="5635" max="5635" width="31" style="6" customWidth="1"/>
-    <col min="5636" max="5636" width="6.875" style="6" customWidth="1"/>
-    <col min="5637" max="5637" width="29.5" style="6" customWidth="1"/>
-    <col min="5638" max="5638" width="9.875" style="6" customWidth="1"/>
-    <col min="5639" max="5888" width="8.125" style="6"/>
-    <col min="5889" max="5889" width="5.5" style="6" customWidth="1"/>
-    <col min="5890" max="5890" width="10.625" style="6" customWidth="1"/>
+    <col min="5636" max="5636" width="6.88671875" style="6" customWidth="1"/>
+    <col min="5637" max="5637" width="29.44140625" style="6" customWidth="1"/>
+    <col min="5638" max="5638" width="9.88671875" style="6" customWidth="1"/>
+    <col min="5639" max="5888" width="8.109375" style="6"/>
+    <col min="5889" max="5889" width="5.44140625" style="6" customWidth="1"/>
+    <col min="5890" max="5890" width="10.6640625" style="6" customWidth="1"/>
     <col min="5891" max="5891" width="31" style="6" customWidth="1"/>
-    <col min="5892" max="5892" width="6.875" style="6" customWidth="1"/>
-    <col min="5893" max="5893" width="29.5" style="6" customWidth="1"/>
-    <col min="5894" max="5894" width="9.875" style="6" customWidth="1"/>
-    <col min="5895" max="6144" width="8.125" style="6"/>
-    <col min="6145" max="6145" width="5.5" style="6" customWidth="1"/>
-    <col min="6146" max="6146" width="10.625" style="6" customWidth="1"/>
+    <col min="5892" max="5892" width="6.88671875" style="6" customWidth="1"/>
+    <col min="5893" max="5893" width="29.44140625" style="6" customWidth="1"/>
+    <col min="5894" max="5894" width="9.88671875" style="6" customWidth="1"/>
+    <col min="5895" max="6144" width="8.109375" style="6"/>
+    <col min="6145" max="6145" width="5.44140625" style="6" customWidth="1"/>
+    <col min="6146" max="6146" width="10.6640625" style="6" customWidth="1"/>
     <col min="6147" max="6147" width="31" style="6" customWidth="1"/>
-    <col min="6148" max="6148" width="6.875" style="6" customWidth="1"/>
-    <col min="6149" max="6149" width="29.5" style="6" customWidth="1"/>
-    <col min="6150" max="6150" width="9.875" style="6" customWidth="1"/>
-    <col min="6151" max="6400" width="8.125" style="6"/>
-    <col min="6401" max="6401" width="5.5" style="6" customWidth="1"/>
-    <col min="6402" max="6402" width="10.625" style="6" customWidth="1"/>
+    <col min="6148" max="6148" width="6.88671875" style="6" customWidth="1"/>
+    <col min="6149" max="6149" width="29.44140625" style="6" customWidth="1"/>
+    <col min="6150" max="6150" width="9.88671875" style="6" customWidth="1"/>
+    <col min="6151" max="6400" width="8.109375" style="6"/>
+    <col min="6401" max="6401" width="5.44140625" style="6" customWidth="1"/>
+    <col min="6402" max="6402" width="10.6640625" style="6" customWidth="1"/>
     <col min="6403" max="6403" width="31" style="6" customWidth="1"/>
-    <col min="6404" max="6404" width="6.875" style="6" customWidth="1"/>
-    <col min="6405" max="6405" width="29.5" style="6" customWidth="1"/>
-    <col min="6406" max="6406" width="9.875" style="6" customWidth="1"/>
-    <col min="6407" max="6656" width="8.125" style="6"/>
-    <col min="6657" max="6657" width="5.5" style="6" customWidth="1"/>
-    <col min="6658" max="6658" width="10.625" style="6" customWidth="1"/>
+    <col min="6404" max="6404" width="6.88671875" style="6" customWidth="1"/>
+    <col min="6405" max="6405" width="29.44140625" style="6" customWidth="1"/>
+    <col min="6406" max="6406" width="9.88671875" style="6" customWidth="1"/>
+    <col min="6407" max="6656" width="8.109375" style="6"/>
+    <col min="6657" max="6657" width="5.44140625" style="6" customWidth="1"/>
+    <col min="6658" max="6658" width="10.6640625" style="6" customWidth="1"/>
     <col min="6659" max="6659" width="31" style="6" customWidth="1"/>
-    <col min="6660" max="6660" width="6.875" style="6" customWidth="1"/>
-    <col min="6661" max="6661" width="29.5" style="6" customWidth="1"/>
-    <col min="6662" max="6662" width="9.875" style="6" customWidth="1"/>
-    <col min="6663" max="6912" width="8.125" style="6"/>
-    <col min="6913" max="6913" width="5.5" style="6" customWidth="1"/>
-    <col min="6914" max="6914" width="10.625" style="6" customWidth="1"/>
+    <col min="6660" max="6660" width="6.88671875" style="6" customWidth="1"/>
+    <col min="6661" max="6661" width="29.44140625" style="6" customWidth="1"/>
+    <col min="6662" max="6662" width="9.88671875" style="6" customWidth="1"/>
+    <col min="6663" max="6912" width="8.109375" style="6"/>
+    <col min="6913" max="6913" width="5.44140625" style="6" customWidth="1"/>
+    <col min="6914" max="6914" width="10.6640625" style="6" customWidth="1"/>
     <col min="6915" max="6915" width="31" style="6" customWidth="1"/>
-    <col min="6916" max="6916" width="6.875" style="6" customWidth="1"/>
-    <col min="6917" max="6917" width="29.5" style="6" customWidth="1"/>
-    <col min="6918" max="6918" width="9.875" style="6" customWidth="1"/>
-    <col min="6919" max="7168" width="8.125" style="6"/>
-    <col min="7169" max="7169" width="5.5" style="6" customWidth="1"/>
-    <col min="7170" max="7170" width="10.625" style="6" customWidth="1"/>
+    <col min="6916" max="6916" width="6.88671875" style="6" customWidth="1"/>
+    <col min="6917" max="6917" width="29.44140625" style="6" customWidth="1"/>
+    <col min="6918" max="6918" width="9.88671875" style="6" customWidth="1"/>
+    <col min="6919" max="7168" width="8.109375" style="6"/>
+    <col min="7169" max="7169" width="5.44140625" style="6" customWidth="1"/>
+    <col min="7170" max="7170" width="10.6640625" style="6" customWidth="1"/>
     <col min="7171" max="7171" width="31" style="6" customWidth="1"/>
-    <col min="7172" max="7172" width="6.875" style="6" customWidth="1"/>
-    <col min="7173" max="7173" width="29.5" style="6" customWidth="1"/>
-    <col min="7174" max="7174" width="9.875" style="6" customWidth="1"/>
-    <col min="7175" max="7424" width="8.125" style="6"/>
-    <col min="7425" max="7425" width="5.5" style="6" customWidth="1"/>
-    <col min="7426" max="7426" width="10.625" style="6" customWidth="1"/>
+    <col min="7172" max="7172" width="6.88671875" style="6" customWidth="1"/>
+    <col min="7173" max="7173" width="29.44140625" style="6" customWidth="1"/>
+    <col min="7174" max="7174" width="9.88671875" style="6" customWidth="1"/>
+    <col min="7175" max="7424" width="8.109375" style="6"/>
+    <col min="7425" max="7425" width="5.44140625" style="6" customWidth="1"/>
+    <col min="7426" max="7426" width="10.6640625" style="6" customWidth="1"/>
     <col min="7427" max="7427" width="31" style="6" customWidth="1"/>
-    <col min="7428" max="7428" width="6.875" style="6" customWidth="1"/>
-    <col min="7429" max="7429" width="29.5" style="6" customWidth="1"/>
-    <col min="7430" max="7430" width="9.875" style="6" customWidth="1"/>
-    <col min="7431" max="7680" width="8.125" style="6"/>
-    <col min="7681" max="7681" width="5.5" style="6" customWidth="1"/>
-    <col min="7682" max="7682" width="10.625" style="6" customWidth="1"/>
+    <col min="7428" max="7428" width="6.88671875" style="6" customWidth="1"/>
+    <col min="7429" max="7429" width="29.44140625" style="6" customWidth="1"/>
+    <col min="7430" max="7430" width="9.88671875" style="6" customWidth="1"/>
+    <col min="7431" max="7680" width="8.109375" style="6"/>
+    <col min="7681" max="7681" width="5.44140625" style="6" customWidth="1"/>
+    <col min="7682" max="7682" width="10.6640625" style="6" customWidth="1"/>
     <col min="7683" max="7683" width="31" style="6" customWidth="1"/>
-    <col min="7684" max="7684" width="6.875" style="6" customWidth="1"/>
-    <col min="7685" max="7685" width="29.5" style="6" customWidth="1"/>
-    <col min="7686" max="7686" width="9.875" style="6" customWidth="1"/>
-    <col min="7687" max="7936" width="8.125" style="6"/>
-    <col min="7937" max="7937" width="5.5" style="6" customWidth="1"/>
-    <col min="7938" max="7938" width="10.625" style="6" customWidth="1"/>
+    <col min="7684" max="7684" width="6.88671875" style="6" customWidth="1"/>
+    <col min="7685" max="7685" width="29.44140625" style="6" customWidth="1"/>
+    <col min="7686" max="7686" width="9.88671875" style="6" customWidth="1"/>
+    <col min="7687" max="7936" width="8.109375" style="6"/>
+    <col min="7937" max="7937" width="5.44140625" style="6" customWidth="1"/>
+    <col min="7938" max="7938" width="10.6640625" style="6" customWidth="1"/>
     <col min="7939" max="7939" width="31" style="6" customWidth="1"/>
-    <col min="7940" max="7940" width="6.875" style="6" customWidth="1"/>
-    <col min="7941" max="7941" width="29.5" style="6" customWidth="1"/>
-    <col min="7942" max="7942" width="9.875" style="6" customWidth="1"/>
-    <col min="7943" max="8192" width="8.125" style="6"/>
-    <col min="8193" max="8193" width="5.5" style="6" customWidth="1"/>
-    <col min="8194" max="8194" width="10.625" style="6" customWidth="1"/>
+    <col min="7940" max="7940" width="6.88671875" style="6" customWidth="1"/>
+    <col min="7941" max="7941" width="29.44140625" style="6" customWidth="1"/>
+    <col min="7942" max="7942" width="9.88671875" style="6" customWidth="1"/>
+    <col min="7943" max="8192" width="8.109375" style="6"/>
+    <col min="8193" max="8193" width="5.44140625" style="6" customWidth="1"/>
+    <col min="8194" max="8194" width="10.6640625" style="6" customWidth="1"/>
     <col min="8195" max="8195" width="31" style="6" customWidth="1"/>
-    <col min="8196" max="8196" width="6.875" style="6" customWidth="1"/>
-    <col min="8197" max="8197" width="29.5" style="6" customWidth="1"/>
-    <col min="8198" max="8198" width="9.875" style="6" customWidth="1"/>
-    <col min="8199" max="8448" width="8.125" style="6"/>
-    <col min="8449" max="8449" width="5.5" style="6" customWidth="1"/>
-    <col min="8450" max="8450" width="10.625" style="6" customWidth="1"/>
+    <col min="8196" max="8196" width="6.88671875" style="6" customWidth="1"/>
+    <col min="8197" max="8197" width="29.44140625" style="6" customWidth="1"/>
+    <col min="8198" max="8198" width="9.88671875" style="6" customWidth="1"/>
+    <col min="8199" max="8448" width="8.109375" style="6"/>
+    <col min="8449" max="8449" width="5.44140625" style="6" customWidth="1"/>
+    <col min="8450" max="8450" width="10.6640625" style="6" customWidth="1"/>
     <col min="8451" max="8451" width="31" style="6" customWidth="1"/>
-    <col min="8452" max="8452" width="6.875" style="6" customWidth="1"/>
-    <col min="8453" max="8453" width="29.5" style="6" customWidth="1"/>
-    <col min="8454" max="8454" width="9.875" style="6" customWidth="1"/>
-    <col min="8455" max="8704" width="8.125" style="6"/>
-    <col min="8705" max="8705" width="5.5" style="6" customWidth="1"/>
-    <col min="8706" max="8706" width="10.625" style="6" customWidth="1"/>
+    <col min="8452" max="8452" width="6.88671875" style="6" customWidth="1"/>
+    <col min="8453" max="8453" width="29.44140625" style="6" customWidth="1"/>
+    <col min="8454" max="8454" width="9.88671875" style="6" customWidth="1"/>
+    <col min="8455" max="8704" width="8.109375" style="6"/>
+    <col min="8705" max="8705" width="5.44140625" style="6" customWidth="1"/>
+    <col min="8706" max="8706" width="10.6640625" style="6" customWidth="1"/>
     <col min="8707" max="8707" width="31" style="6" customWidth="1"/>
-    <col min="8708" max="8708" width="6.875" style="6" customWidth="1"/>
-    <col min="8709" max="8709" width="29.5" style="6" customWidth="1"/>
-    <col min="8710" max="8710" width="9.875" style="6" customWidth="1"/>
-    <col min="8711" max="8960" width="8.125" style="6"/>
-    <col min="8961" max="8961" width="5.5" style="6" customWidth="1"/>
-    <col min="8962" max="8962" width="10.625" style="6" customWidth="1"/>
+    <col min="8708" max="8708" width="6.88671875" style="6" customWidth="1"/>
+    <col min="8709" max="8709" width="29.44140625" style="6" customWidth="1"/>
+    <col min="8710" max="8710" width="9.88671875" style="6" customWidth="1"/>
+    <col min="8711" max="8960" width="8.109375" style="6"/>
+    <col min="8961" max="8961" width="5.44140625" style="6" customWidth="1"/>
+    <col min="8962" max="8962" width="10.6640625" style="6" customWidth="1"/>
     <col min="8963" max="8963" width="31" style="6" customWidth="1"/>
-    <col min="8964" max="8964" width="6.875" style="6" customWidth="1"/>
-    <col min="8965" max="8965" width="29.5" style="6" customWidth="1"/>
-    <col min="8966" max="8966" width="9.875" style="6" customWidth="1"/>
-    <col min="8967" max="9216" width="8.125" style="6"/>
-    <col min="9217" max="9217" width="5.5" style="6" customWidth="1"/>
-    <col min="9218" max="9218" width="10.625" style="6" customWidth="1"/>
+    <col min="8964" max="8964" width="6.88671875" style="6" customWidth="1"/>
+    <col min="8965" max="8965" width="29.44140625" style="6" customWidth="1"/>
+    <col min="8966" max="8966" width="9.88671875" style="6" customWidth="1"/>
+    <col min="8967" max="9216" width="8.109375" style="6"/>
+    <col min="9217" max="9217" width="5.44140625" style="6" customWidth="1"/>
+    <col min="9218" max="9218" width="10.6640625" style="6" customWidth="1"/>
     <col min="9219" max="9219" width="31" style="6" customWidth="1"/>
-    <col min="9220" max="9220" width="6.875" style="6" customWidth="1"/>
-    <col min="9221" max="9221" width="29.5" style="6" customWidth="1"/>
-    <col min="9222" max="9222" width="9.875" style="6" customWidth="1"/>
-    <col min="9223" max="9472" width="8.125" style="6"/>
-    <col min="9473" max="9473" width="5.5" style="6" customWidth="1"/>
-    <col min="9474" max="9474" width="10.625" style="6" customWidth="1"/>
+    <col min="9220" max="9220" width="6.88671875" style="6" customWidth="1"/>
+    <col min="9221" max="9221" width="29.44140625" style="6" customWidth="1"/>
+    <col min="9222" max="9222" width="9.88671875" style="6" customWidth="1"/>
+    <col min="9223" max="9472" width="8.109375" style="6"/>
+    <col min="9473" max="9473" width="5.44140625" style="6" customWidth="1"/>
+    <col min="9474" max="9474" width="10.6640625" style="6" customWidth="1"/>
     <col min="9475" max="9475" width="31" style="6" customWidth="1"/>
-    <col min="9476" max="9476" width="6.875" style="6" customWidth="1"/>
-    <col min="9477" max="9477" width="29.5" style="6" customWidth="1"/>
-    <col min="9478" max="9478" width="9.875" style="6" customWidth="1"/>
-    <col min="9479" max="9728" width="8.125" style="6"/>
-    <col min="9729" max="9729" width="5.5" style="6" customWidth="1"/>
-    <col min="9730" max="9730" width="10.625" style="6" customWidth="1"/>
+    <col min="9476" max="9476" width="6.88671875" style="6" customWidth="1"/>
+    <col min="9477" max="9477" width="29.44140625" style="6" customWidth="1"/>
+    <col min="9478" max="9478" width="9.88671875" style="6" customWidth="1"/>
+    <col min="9479" max="9728" width="8.109375" style="6"/>
+    <col min="9729" max="9729" width="5.44140625" style="6" customWidth="1"/>
+    <col min="9730" max="9730" width="10.6640625" style="6" customWidth="1"/>
     <col min="9731" max="9731" width="31" style="6" customWidth="1"/>
-    <col min="9732" max="9732" width="6.875" style="6" customWidth="1"/>
-    <col min="9733" max="9733" width="29.5" style="6" customWidth="1"/>
-    <col min="9734" max="9734" width="9.875" style="6" customWidth="1"/>
-    <col min="9735" max="9984" width="8.125" style="6"/>
-    <col min="9985" max="9985" width="5.5" style="6" customWidth="1"/>
-    <col min="9986" max="9986" width="10.625" style="6" customWidth="1"/>
+    <col min="9732" max="9732" width="6.88671875" style="6" customWidth="1"/>
+    <col min="9733" max="9733" width="29.44140625" style="6" customWidth="1"/>
+    <col min="9734" max="9734" width="9.88671875" style="6" customWidth="1"/>
+    <col min="9735" max="9984" width="8.109375" style="6"/>
+    <col min="9985" max="9985" width="5.44140625" style="6" customWidth="1"/>
+    <col min="9986" max="9986" width="10.6640625" style="6" customWidth="1"/>
     <col min="9987" max="9987" width="31" style="6" customWidth="1"/>
-    <col min="9988" max="9988" width="6.875" style="6" customWidth="1"/>
-    <col min="9989" max="9989" width="29.5" style="6" customWidth="1"/>
-    <col min="9990" max="9990" width="9.875" style="6" customWidth="1"/>
-    <col min="9991" max="10240" width="8.125" style="6"/>
-    <col min="10241" max="10241" width="5.5" style="6" customWidth="1"/>
-    <col min="10242" max="10242" width="10.625" style="6" customWidth="1"/>
+    <col min="9988" max="9988" width="6.88671875" style="6" customWidth="1"/>
+    <col min="9989" max="9989" width="29.44140625" style="6" customWidth="1"/>
+    <col min="9990" max="9990" width="9.88671875" style="6" customWidth="1"/>
+    <col min="9991" max="10240" width="8.109375" style="6"/>
+    <col min="10241" max="10241" width="5.44140625" style="6" customWidth="1"/>
+    <col min="10242" max="10242" width="10.6640625" style="6" customWidth="1"/>
     <col min="10243" max="10243" width="31" style="6" customWidth="1"/>
-    <col min="10244" max="10244" width="6.875" style="6" customWidth="1"/>
-    <col min="10245" max="10245" width="29.5" style="6" customWidth="1"/>
-    <col min="10246" max="10246" width="9.875" style="6" customWidth="1"/>
-    <col min="10247" max="10496" width="8.125" style="6"/>
-    <col min="10497" max="10497" width="5.5" style="6" customWidth="1"/>
-    <col min="10498" max="10498" width="10.625" style="6" customWidth="1"/>
+    <col min="10244" max="10244" width="6.88671875" style="6" customWidth="1"/>
+    <col min="10245" max="10245" width="29.44140625" style="6" customWidth="1"/>
+    <col min="10246" max="10246" width="9.88671875" style="6" customWidth="1"/>
+    <col min="10247" max="10496" width="8.109375" style="6"/>
+    <col min="10497" max="10497" width="5.44140625" style="6" customWidth="1"/>
+    <col min="10498" max="10498" width="10.6640625" style="6" customWidth="1"/>
     <col min="10499" max="10499" width="31" style="6" customWidth="1"/>
-    <col min="10500" max="10500" width="6.875" style="6" customWidth="1"/>
-    <col min="10501" max="10501" width="29.5" style="6" customWidth="1"/>
-    <col min="10502" max="10502" width="9.875" style="6" customWidth="1"/>
-    <col min="10503" max="10752" width="8.125" style="6"/>
-    <col min="10753" max="10753" width="5.5" style="6" customWidth="1"/>
-    <col min="10754" max="10754" width="10.625" style="6" customWidth="1"/>
+    <col min="10500" max="10500" width="6.88671875" style="6" customWidth="1"/>
+    <col min="10501" max="10501" width="29.44140625" style="6" customWidth="1"/>
+    <col min="10502" max="10502" width="9.88671875" style="6" customWidth="1"/>
+    <col min="10503" max="10752" width="8.109375" style="6"/>
+    <col min="10753" max="10753" width="5.44140625" style="6" customWidth="1"/>
+    <col min="10754" max="10754" width="10.6640625" style="6" customWidth="1"/>
     <col min="10755" max="10755" width="31" style="6" customWidth="1"/>
-    <col min="10756" max="10756" width="6.875" style="6" customWidth="1"/>
-    <col min="10757" max="10757" width="29.5" style="6" customWidth="1"/>
-    <col min="10758" max="10758" width="9.875" style="6" customWidth="1"/>
-    <col min="10759" max="11008" width="8.125" style="6"/>
-    <col min="11009" max="11009" width="5.5" style="6" customWidth="1"/>
-    <col min="11010" max="11010" width="10.625" style="6" customWidth="1"/>
+    <col min="10756" max="10756" width="6.88671875" style="6" customWidth="1"/>
+    <col min="10757" max="10757" width="29.44140625" style="6" customWidth="1"/>
+    <col min="10758" max="10758" width="9.88671875" style="6" customWidth="1"/>
+    <col min="10759" max="11008" width="8.109375" style="6"/>
+    <col min="11009" max="11009" width="5.44140625" style="6" customWidth="1"/>
+    <col min="11010" max="11010" width="10.6640625" style="6" customWidth="1"/>
     <col min="11011" max="11011" width="31" style="6" customWidth="1"/>
-    <col min="11012" max="11012" width="6.875" style="6" customWidth="1"/>
-    <col min="11013" max="11013" width="29.5" style="6" customWidth="1"/>
-    <col min="11014" max="11014" width="9.875" style="6" customWidth="1"/>
-    <col min="11015" max="11264" width="8.125" style="6"/>
-    <col min="11265" max="11265" width="5.5" style="6" customWidth="1"/>
-    <col min="11266" max="11266" width="10.625" style="6" customWidth="1"/>
+    <col min="11012" max="11012" width="6.88671875" style="6" customWidth="1"/>
+    <col min="11013" max="11013" width="29.44140625" style="6" customWidth="1"/>
+    <col min="11014" max="11014" width="9.88671875" style="6" customWidth="1"/>
+    <col min="11015" max="11264" width="8.109375" style="6"/>
+    <col min="11265" max="11265" width="5.44140625" style="6" customWidth="1"/>
+    <col min="11266" max="11266" width="10.6640625" style="6" customWidth="1"/>
     <col min="11267" max="11267" width="31" style="6" customWidth="1"/>
-    <col min="11268" max="11268" width="6.875" style="6" customWidth="1"/>
-    <col min="11269" max="11269" width="29.5" style="6" customWidth="1"/>
-    <col min="11270" max="11270" width="9.875" style="6" customWidth="1"/>
-    <col min="11271" max="11520" width="8.125" style="6"/>
-    <col min="11521" max="11521" width="5.5" style="6" customWidth="1"/>
-    <col min="11522" max="11522" width="10.625" style="6" customWidth="1"/>
+    <col min="11268" max="11268" width="6.88671875" style="6" customWidth="1"/>
+    <col min="11269" max="11269" width="29.44140625" style="6" customWidth="1"/>
+    <col min="11270" max="11270" width="9.88671875" style="6" customWidth="1"/>
+    <col min="11271" max="11520" width="8.109375" style="6"/>
+    <col min="11521" max="11521" width="5.44140625" style="6" customWidth="1"/>
+    <col min="11522" max="11522" width="10.6640625" style="6" customWidth="1"/>
     <col min="11523" max="11523" width="31" style="6" customWidth="1"/>
-    <col min="11524" max="11524" width="6.875" style="6" customWidth="1"/>
-    <col min="11525" max="11525" width="29.5" style="6" customWidth="1"/>
-    <col min="11526" max="11526" width="9.875" style="6" customWidth="1"/>
-    <col min="11527" max="11776" width="8.125" style="6"/>
-    <col min="11777" max="11777" width="5.5" style="6" customWidth="1"/>
-    <col min="11778" max="11778" width="10.625" style="6" customWidth="1"/>
+    <col min="11524" max="11524" width="6.88671875" style="6" customWidth="1"/>
+    <col min="11525" max="11525" width="29.44140625" style="6" customWidth="1"/>
+    <col min="11526" max="11526" width="9.88671875" style="6" customWidth="1"/>
+    <col min="11527" max="11776" width="8.109375" style="6"/>
+    <col min="11777" max="11777" width="5.44140625" style="6" customWidth="1"/>
+    <col min="11778" max="11778" width="10.6640625" style="6" customWidth="1"/>
     <col min="11779" max="11779" width="31" style="6" customWidth="1"/>
-    <col min="11780" max="11780" width="6.875" style="6" customWidth="1"/>
-    <col min="11781" max="11781" width="29.5" style="6" customWidth="1"/>
-    <col min="11782" max="11782" width="9.875" style="6" customWidth="1"/>
-    <col min="11783" max="12032" width="8.125" style="6"/>
-    <col min="12033" max="12033" width="5.5" style="6" customWidth="1"/>
-    <col min="12034" max="12034" width="10.625" style="6" customWidth="1"/>
+    <col min="11780" max="11780" width="6.88671875" style="6" customWidth="1"/>
+    <col min="11781" max="11781" width="29.44140625" style="6" customWidth="1"/>
+    <col min="11782" max="11782" width="9.88671875" style="6" customWidth="1"/>
+    <col min="11783" max="12032" width="8.109375" style="6"/>
+    <col min="12033" max="12033" width="5.44140625" style="6" customWidth="1"/>
+    <col min="12034" max="12034" width="10.6640625" style="6" customWidth="1"/>
     <col min="12035" max="12035" width="31" style="6" customWidth="1"/>
-    <col min="12036" max="12036" width="6.875" style="6" customWidth="1"/>
-    <col min="12037" max="12037" width="29.5" style="6" customWidth="1"/>
-    <col min="12038" max="12038" width="9.875" style="6" customWidth="1"/>
-    <col min="12039" max="12288" width="8.125" style="6"/>
-    <col min="12289" max="12289" width="5.5" style="6" customWidth="1"/>
-    <col min="12290" max="12290" width="10.625" style="6" customWidth="1"/>
+    <col min="12036" max="12036" width="6.88671875" style="6" customWidth="1"/>
+    <col min="12037" max="12037" width="29.44140625" style="6" customWidth="1"/>
+    <col min="12038" max="12038" width="9.88671875" style="6" customWidth="1"/>
+    <col min="12039" max="12288" width="8.109375" style="6"/>
+    <col min="12289" max="12289" width="5.44140625" style="6" customWidth="1"/>
+    <col min="12290" max="12290" width="10.6640625" style="6" customWidth="1"/>
     <col min="12291" max="12291" width="31" style="6" customWidth="1"/>
-    <col min="12292" max="12292" width="6.875" style="6" customWidth="1"/>
-    <col min="12293" max="12293" width="29.5" style="6" customWidth="1"/>
-    <col min="12294" max="12294" width="9.875" style="6" customWidth="1"/>
-    <col min="12295" max="12544" width="8.125" style="6"/>
-    <col min="12545" max="12545" width="5.5" style="6" customWidth="1"/>
-    <col min="12546" max="12546" width="10.625" style="6" customWidth="1"/>
+    <col min="12292" max="12292" width="6.88671875" style="6" customWidth="1"/>
+    <col min="12293" max="12293" width="29.44140625" style="6" customWidth="1"/>
+    <col min="12294" max="12294" width="9.88671875" style="6" customWidth="1"/>
+    <col min="12295" max="12544" width="8.109375" style="6"/>
+    <col min="12545" max="12545" width="5.44140625" style="6" customWidth="1"/>
+    <col min="12546" max="12546" width="10.6640625" style="6" customWidth="1"/>
     <col min="12547" max="12547" width="31" style="6" customWidth="1"/>
-    <col min="12548" max="12548" width="6.875" style="6" customWidth="1"/>
-    <col min="12549" max="12549" width="29.5" style="6" customWidth="1"/>
-    <col min="12550" max="12550" width="9.875" style="6" customWidth="1"/>
-    <col min="12551" max="12800" width="8.125" style="6"/>
-    <col min="12801" max="12801" width="5.5" style="6" customWidth="1"/>
-    <col min="12802" max="12802" width="10.625" style="6" customWidth="1"/>
+    <col min="12548" max="12548" width="6.88671875" style="6" customWidth="1"/>
+    <col min="12549" max="12549" width="29.44140625" style="6" customWidth="1"/>
+    <col min="12550" max="12550" width="9.88671875" style="6" customWidth="1"/>
+    <col min="12551" max="12800" width="8.109375" style="6"/>
+    <col min="12801" max="12801" width="5.44140625" style="6" customWidth="1"/>
+    <col min="12802" max="12802" width="10.6640625" style="6" customWidth="1"/>
     <col min="12803" max="12803" width="31" style="6" customWidth="1"/>
-    <col min="12804" max="12804" width="6.875" style="6" customWidth="1"/>
-    <col min="12805" max="12805" width="29.5" style="6" customWidth="1"/>
-    <col min="12806" max="12806" width="9.875" style="6" customWidth="1"/>
-    <col min="12807" max="13056" width="8.125" style="6"/>
-    <col min="13057" max="13057" width="5.5" style="6" customWidth="1"/>
-    <col min="13058" max="13058" width="10.625" style="6" customWidth="1"/>
+    <col min="12804" max="12804" width="6.88671875" style="6" customWidth="1"/>
+    <col min="12805" max="12805" width="29.44140625" style="6" customWidth="1"/>
+    <col min="12806" max="12806" width="9.88671875" style="6" customWidth="1"/>
+    <col min="12807" max="13056" width="8.109375" style="6"/>
+    <col min="13057" max="13057" width="5.44140625" style="6" customWidth="1"/>
+    <col min="13058" max="13058" width="10.6640625" style="6" customWidth="1"/>
     <col min="13059" max="13059" width="31" style="6" customWidth="1"/>
-    <col min="13060" max="13060" width="6.875" style="6" customWidth="1"/>
-    <col min="13061" max="13061" width="29.5" style="6" customWidth="1"/>
-    <col min="13062" max="13062" width="9.875" style="6" customWidth="1"/>
-    <col min="13063" max="13312" width="8.125" style="6"/>
-    <col min="13313" max="13313" width="5.5" style="6" customWidth="1"/>
-    <col min="13314" max="13314" width="10.625" style="6" customWidth="1"/>
+    <col min="13060" max="13060" width="6.88671875" style="6" customWidth="1"/>
+    <col min="13061" max="13061" width="29.44140625" style="6" customWidth="1"/>
+    <col min="13062" max="13062" width="9.88671875" style="6" customWidth="1"/>
+    <col min="13063" max="13312" width="8.109375" style="6"/>
+    <col min="13313" max="13313" width="5.44140625" style="6" customWidth="1"/>
+    <col min="13314" max="13314" width="10.6640625" style="6" customWidth="1"/>
     <col min="13315" max="13315" width="31" style="6" customWidth="1"/>
-    <col min="13316" max="13316" width="6.875" style="6" customWidth="1"/>
-    <col min="13317" max="13317" width="29.5" style="6" customWidth="1"/>
-    <col min="13318" max="13318" width="9.875" style="6" customWidth="1"/>
-    <col min="13319" max="13568" width="8.125" style="6"/>
-    <col min="13569" max="13569" width="5.5" style="6" customWidth="1"/>
-    <col min="13570" max="13570" width="10.625" style="6" customWidth="1"/>
+    <col min="13316" max="13316" width="6.88671875" style="6" customWidth="1"/>
+    <col min="13317" max="13317" width="29.44140625" style="6" customWidth="1"/>
+    <col min="13318" max="13318" width="9.88671875" style="6" customWidth="1"/>
+    <col min="13319" max="13568" width="8.109375" style="6"/>
+    <col min="13569" max="13569" width="5.44140625" style="6" customWidth="1"/>
+    <col min="13570" max="13570" width="10.6640625" style="6" customWidth="1"/>
     <col min="13571" max="13571" width="31" style="6" customWidth="1"/>
-    <col min="13572" max="13572" width="6.875" style="6" customWidth="1"/>
-    <col min="13573" max="13573" width="29.5" style="6" customWidth="1"/>
-    <col min="13574" max="13574" width="9.875" style="6" customWidth="1"/>
-    <col min="13575" max="13824" width="8.125" style="6"/>
-    <col min="13825" max="13825" width="5.5" style="6" customWidth="1"/>
-    <col min="13826" max="13826" width="10.625" style="6" customWidth="1"/>
+    <col min="13572" max="13572" width="6.88671875" style="6" customWidth="1"/>
+    <col min="13573" max="13573" width="29.44140625" style="6" customWidth="1"/>
+    <col min="13574" max="13574" width="9.88671875" style="6" customWidth="1"/>
+    <col min="13575" max="13824" width="8.109375" style="6"/>
+    <col min="13825" max="13825" width="5.44140625" style="6" customWidth="1"/>
+    <col min="13826" max="13826" width="10.6640625" style="6" customWidth="1"/>
     <col min="13827" max="13827" width="31" style="6" customWidth="1"/>
-    <col min="13828" max="13828" width="6.875" style="6" customWidth="1"/>
-    <col min="13829" max="13829" width="29.5" style="6" customWidth="1"/>
-    <col min="13830" max="13830" width="9.875" style="6" customWidth="1"/>
-    <col min="13831" max="14080" width="8.125" style="6"/>
-    <col min="14081" max="14081" width="5.5" style="6" customWidth="1"/>
-    <col min="14082" max="14082" width="10.625" style="6" customWidth="1"/>
+    <col min="13828" max="13828" width="6.88671875" style="6" customWidth="1"/>
+    <col min="13829" max="13829" width="29.44140625" style="6" customWidth="1"/>
+    <col min="13830" max="13830" width="9.88671875" style="6" customWidth="1"/>
+    <col min="13831" max="14080" width="8.109375" style="6"/>
+    <col min="14081" max="14081" width="5.44140625" style="6" customWidth="1"/>
+    <col min="14082" max="14082" width="10.6640625" style="6" customWidth="1"/>
     <col min="14083" max="14083" width="31" style="6" customWidth="1"/>
-    <col min="14084" max="14084" width="6.875" style="6" customWidth="1"/>
-    <col min="14085" max="14085" width="29.5" style="6" customWidth="1"/>
-    <col min="14086" max="14086" width="9.875" style="6" customWidth="1"/>
-    <col min="14087" max="14336" width="8.125" style="6"/>
-    <col min="14337" max="14337" width="5.5" style="6" customWidth="1"/>
-    <col min="14338" max="14338" width="10.625" style="6" customWidth="1"/>
+    <col min="14084" max="14084" width="6.88671875" style="6" customWidth="1"/>
+    <col min="14085" max="14085" width="29.44140625" style="6" customWidth="1"/>
+    <col min="14086" max="14086" width="9.88671875" style="6" customWidth="1"/>
+    <col min="14087" max="14336" width="8.109375" style="6"/>
+    <col min="14337" max="14337" width="5.44140625" style="6" customWidth="1"/>
+    <col min="14338" max="14338" width="10.6640625" style="6" customWidth="1"/>
     <col min="14339" max="14339" width="31" style="6" customWidth="1"/>
-    <col min="14340" max="14340" width="6.875" style="6" customWidth="1"/>
-    <col min="14341" max="14341" width="29.5" style="6" customWidth="1"/>
-    <col min="14342" max="14342" width="9.875" style="6" customWidth="1"/>
-    <col min="14343" max="14592" width="8.125" style="6"/>
-    <col min="14593" max="14593" width="5.5" style="6" customWidth="1"/>
-    <col min="14594" max="14594" width="10.625" style="6" customWidth="1"/>
+    <col min="14340" max="14340" width="6.88671875" style="6" customWidth="1"/>
+    <col min="14341" max="14341" width="29.44140625" style="6" customWidth="1"/>
+    <col min="14342" max="14342" width="9.88671875" style="6" customWidth="1"/>
+    <col min="14343" max="14592" width="8.109375" style="6"/>
+    <col min="14593" max="14593" width="5.44140625" style="6" customWidth="1"/>
+    <col min="14594" max="14594" width="10.6640625" style="6" customWidth="1"/>
     <col min="14595" max="14595" width="31" style="6" customWidth="1"/>
-    <col min="14596" max="14596" width="6.875" style="6" customWidth="1"/>
-    <col min="14597" max="14597" width="29.5" style="6" customWidth="1"/>
-    <col min="14598" max="14598" width="9.875" style="6" customWidth="1"/>
-    <col min="14599" max="14848" width="8.125" style="6"/>
-    <col min="14849" max="14849" width="5.5" style="6" customWidth="1"/>
-    <col min="14850" max="14850" width="10.625" style="6" customWidth="1"/>
+    <col min="14596" max="14596" width="6.88671875" style="6" customWidth="1"/>
+    <col min="14597" max="14597" width="29.44140625" style="6" customWidth="1"/>
+    <col min="14598" max="14598" width="9.88671875" style="6" customWidth="1"/>
+    <col min="14599" max="14848" width="8.109375" style="6"/>
+    <col min="14849" max="14849" width="5.44140625" style="6" customWidth="1"/>
+    <col min="14850" max="14850" width="10.6640625" style="6" customWidth="1"/>
     <col min="14851" max="14851" width="31" style="6" customWidth="1"/>
-    <col min="14852" max="14852" width="6.875" style="6" customWidth="1"/>
-    <col min="14853" max="14853" width="29.5" style="6" customWidth="1"/>
-    <col min="14854" max="14854" width="9.875" style="6" customWidth="1"/>
-    <col min="14855" max="15104" width="8.125" style="6"/>
-    <col min="15105" max="15105" width="5.5" style="6" customWidth="1"/>
-    <col min="15106" max="15106" width="10.625" style="6" customWidth="1"/>
+    <col min="14852" max="14852" width="6.88671875" style="6" customWidth="1"/>
+    <col min="14853" max="14853" width="29.44140625" style="6" customWidth="1"/>
+    <col min="14854" max="14854" width="9.88671875" style="6" customWidth="1"/>
+    <col min="14855" max="15104" width="8.109375" style="6"/>
+    <col min="15105" max="15105" width="5.44140625" style="6" customWidth="1"/>
+    <col min="15106" max="15106" width="10.6640625" style="6" customWidth="1"/>
     <col min="15107" max="15107" width="31" style="6" customWidth="1"/>
-    <col min="15108" max="15108" width="6.875" style="6" customWidth="1"/>
-    <col min="15109" max="15109" width="29.5" style="6" customWidth="1"/>
-    <col min="15110" max="15110" width="9.875" style="6" customWidth="1"/>
-    <col min="15111" max="15360" width="8.125" style="6"/>
-    <col min="15361" max="15361" width="5.5" style="6" customWidth="1"/>
-    <col min="15362" max="15362" width="10.625" style="6" customWidth="1"/>
+    <col min="15108" max="15108" width="6.88671875" style="6" customWidth="1"/>
+    <col min="15109" max="15109" width="29.44140625" style="6" customWidth="1"/>
+    <col min="15110" max="15110" width="9.88671875" style="6" customWidth="1"/>
+    <col min="15111" max="15360" width="8.109375" style="6"/>
+    <col min="15361" max="15361" width="5.44140625" style="6" customWidth="1"/>
+    <col min="15362" max="15362" width="10.6640625" style="6" customWidth="1"/>
     <col min="15363" max="15363" width="31" style="6" customWidth="1"/>
-    <col min="15364" max="15364" width="6.875" style="6" customWidth="1"/>
-    <col min="15365" max="15365" width="29.5" style="6" customWidth="1"/>
-    <col min="15366" max="15366" width="9.875" style="6" customWidth="1"/>
-    <col min="15367" max="15616" width="8.125" style="6"/>
-    <col min="15617" max="15617" width="5.5" style="6" customWidth="1"/>
-    <col min="15618" max="15618" width="10.625" style="6" customWidth="1"/>
+    <col min="15364" max="15364" width="6.88671875" style="6" customWidth="1"/>
+    <col min="15365" max="15365" width="29.44140625" style="6" customWidth="1"/>
+    <col min="15366" max="15366" width="9.88671875" style="6" customWidth="1"/>
+    <col min="15367" max="15616" width="8.109375" style="6"/>
+    <col min="15617" max="15617" width="5.44140625" style="6" customWidth="1"/>
+    <col min="15618" max="15618" width="10.6640625" style="6" customWidth="1"/>
     <col min="15619" max="15619" width="31" style="6" customWidth="1"/>
-    <col min="15620" max="15620" width="6.875" style="6" customWidth="1"/>
-    <col min="15621" max="15621" width="29.5" style="6" customWidth="1"/>
-    <col min="15622" max="15622" width="9.875" style="6" customWidth="1"/>
-    <col min="15623" max="15872" width="8.125" style="6"/>
-    <col min="15873" max="15873" width="5.5" style="6" customWidth="1"/>
-    <col min="15874" max="15874" width="10.625" style="6" customWidth="1"/>
+    <col min="15620" max="15620" width="6.88671875" style="6" customWidth="1"/>
+    <col min="15621" max="15621" width="29.44140625" style="6" customWidth="1"/>
+    <col min="15622" max="15622" width="9.88671875" style="6" customWidth="1"/>
+    <col min="15623" max="15872" width="8.109375" style="6"/>
+    <col min="15873" max="15873" width="5.44140625" style="6" customWidth="1"/>
+    <col min="15874" max="15874" width="10.6640625" style="6" customWidth="1"/>
     <col min="15875" max="15875" width="31" style="6" customWidth="1"/>
-    <col min="15876" max="15876" width="6.875" style="6" customWidth="1"/>
-    <col min="15877" max="15877" width="29.5" style="6" customWidth="1"/>
-    <col min="15878" max="15878" width="9.875" style="6" customWidth="1"/>
-    <col min="15879" max="16128" width="8.125" style="6"/>
-    <col min="16129" max="16129" width="5.5" style="6" customWidth="1"/>
-    <col min="16130" max="16130" width="10.625" style="6" customWidth="1"/>
+    <col min="15876" max="15876" width="6.88671875" style="6" customWidth="1"/>
+    <col min="15877" max="15877" width="29.44140625" style="6" customWidth="1"/>
+    <col min="15878" max="15878" width="9.88671875" style="6" customWidth="1"/>
+    <col min="15879" max="16128" width="8.109375" style="6"/>
+    <col min="16129" max="16129" width="5.44140625" style="6" customWidth="1"/>
+    <col min="16130" max="16130" width="10.6640625" style="6" customWidth="1"/>
     <col min="16131" max="16131" width="31" style="6" customWidth="1"/>
-    <col min="16132" max="16132" width="6.875" style="6" customWidth="1"/>
-    <col min="16133" max="16133" width="29.5" style="6" customWidth="1"/>
-    <col min="16134" max="16134" width="9.875" style="6" customWidth="1"/>
-    <col min="16135" max="16384" width="8.125" style="6"/>
+    <col min="16132" max="16132" width="6.88671875" style="6" customWidth="1"/>
+    <col min="16133" max="16133" width="29.44140625" style="6" customWidth="1"/>
+    <col min="16134" max="16134" width="9.88671875" style="6" customWidth="1"/>
+    <col min="16135" max="16384" width="8.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="26" customFormat="1" ht="10.5"/>
+    <row r="1" spans="2:5" s="26" customFormat="1" ht="9.6"/>
     <row r="2" spans="2:5" s="28" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" s="28" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="111"/>
+      <c r="C3" s="118"/>
     </row>
     <row r="4" spans="2:5" s="28" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
     <row r="5" spans="2:5" s="28" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="112"/>
-    </row>
-    <row r="6" spans="2:5" ht="12.75" thickBot="1">
+      <c r="C5" s="119"/>
+    </row>
+    <row r="6" spans="2:5" ht="12.6" thickBot="1">
       <c r="B6" s="29"/>
     </row>
     <row r="7" spans="2:5">
@@ -6112,26 +6650,34 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="65">
+      <c r="B12" s="102">
         <v>45251</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="104" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="65"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-    </row>
-    <row r="14" spans="2:5" ht="12.75" thickBot="1">
+      <c r="B13" s="65">
+        <v>45687</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="12.6" thickBot="1">
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -6162,124 +6708,119 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF99CC"/>
-  </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="102" customWidth="1"/>
-    <col min="2" max="2" width="25.125" style="103" customWidth="1"/>
-    <col min="3" max="5" width="37" style="103" customWidth="1"/>
-    <col min="6" max="16384" width="9.625" style="102"/>
+    <col min="1" max="1" width="5.33203125" style="100" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="101" customWidth="1"/>
+    <col min="3" max="5" width="37" style="101" customWidth="1"/>
+    <col min="6" max="16384" width="9.6640625" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="82" customFormat="1" ht="12"/>
-    <row r="2" spans="1:11" s="83" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-    </row>
-    <row r="3" spans="1:11" s="83" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B3" s="86" t="s">
+    <row r="1" spans="1:11" s="80" customFormat="1" ht="11.4"/>
+    <row r="2" spans="1:11" s="81" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+    </row>
+    <row r="3" spans="1:11" s="81" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B3" s="84" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="83" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-    </row>
-    <row r="5" spans="1:11" s="83" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="87" t="s">
+    <row r="4" spans="1:11" s="81" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+    </row>
+    <row r="5" spans="1:11" s="81" customFormat="1" ht="21" customHeight="1">
+      <c r="B5" s="85" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="81" customFormat="1" thickBot="1"/>
+    <row r="7" spans="1:11" s="89" customFormat="1" ht="14.4">
+      <c r="A7" s="81"/>
+      <c r="B7" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="89" customFormat="1" ht="28.8">
+      <c r="A8" s="81"/>
+      <c r="B8" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="89" customFormat="1" ht="29.4" thickBot="1">
+      <c r="A9" s="81"/>
+      <c r="B9" s="93" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="99" customFormat="1">
+      <c r="A10" s="96"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+    </row>
+    <row r="11" spans="1:11" s="81" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+    </row>
+    <row r="12" spans="1:11" s="81" customFormat="1" ht="21" customHeight="1">
+      <c r="B12" s="85" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="83" customFormat="1" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" s="91" customFormat="1" ht="14.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" s="90" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="91" customFormat="1" ht="28.5">
-      <c r="A8" s="83"/>
-      <c r="B8" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="93" t="s">
-        <v>300</v>
-      </c>
-      <c r="E8" s="94" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="91" customFormat="1" ht="29.25" thickBot="1">
-      <c r="A9" s="83"/>
-      <c r="B9" s="95" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="96" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="101" customFormat="1">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-    </row>
-    <row r="11" spans="1:11" s="83" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-    </row>
-    <row r="12" spans="1:11" s="83" customFormat="1" ht="21" customHeight="1">
-      <c r="B12" s="87" t="s">
+    <row r="14" spans="1:11">
+      <c r="B14" s="101" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="103" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" s="101" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="103" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6292,40 +6833,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFF99CC"/>
   </sheetPr>
   <dimension ref="A1:S428"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="A9:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="44.5" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" customWidth="1"/>
-    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="37" customFormat="1" ht="11.25">
+    <row r="1" spans="1:19" s="37" customFormat="1" ht="10.8">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -6343,7 +6884,7 @@
       <c r="R1" s="38"/>
       <c r="S1" s="38"/>
     </row>
-    <row r="2" spans="1:19" s="37" customFormat="1" ht="25.5">
+    <row r="2" spans="1:19" s="37" customFormat="1" ht="25.8">
       <c r="B2" s="39" t="s">
         <v>11</v>
       </c>
@@ -6380,26 +6921,26 @@
     </row>
     <row r="6" spans="1:19" s="48" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="46"/>
-      <c r="B6" s="80" t="s">
-        <v>288</v>
+      <c r="B6" s="78" t="s">
+        <v>287</v>
       </c>
       <c r="C6" s="47"/>
     </row>
     <row r="7" spans="1:19" s="48" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="46"/>
-      <c r="B7" s="80" t="s">
-        <v>301</v>
+      <c r="B7" s="78" t="s">
+        <v>300</v>
       </c>
       <c r="C7" s="47"/>
     </row>
     <row r="8" spans="1:19" s="48" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A8" s="46"/>
-      <c r="B8" s="80" t="s">
-        <v>292</v>
+      <c r="B8" s="78" t="s">
+        <v>291</v>
       </c>
       <c r="C8" s="47"/>
     </row>
-    <row r="9" spans="1:19" s="37" customFormat="1" ht="45.75" thickBot="1">
+    <row r="9" spans="1:19" s="37" customFormat="1" ht="65.400000000000006" thickBot="1">
       <c r="B9" s="49" t="s">
         <v>176</v>
       </c>
@@ -6455,7 +6996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="11.25" customHeight="1">
+    <row r="10" spans="1:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B10" s="42" t="s">
         <v>190</v>
       </c>
@@ -6501,12 +7042,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="11.25" customHeight="1">
+    <row r="11" spans="1:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B11" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>185</v>
@@ -6547,7 +7088,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="11.25" customHeight="1">
+    <row r="12" spans="1:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B12" s="41" t="s">
         <v>191</v>
       </c>
@@ -6593,7 +7134,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="11.25" customHeight="1">
+    <row r="13" spans="1:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B13" s="41" t="s">
         <v>47</v>
       </c>
@@ -6639,7 +7180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="11.25" customHeight="1">
+    <row r="14" spans="1:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B14" s="41" t="s">
         <v>203</v>
       </c>
@@ -6685,7 +7226,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="11.25" customHeight="1">
+    <row r="15" spans="1:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B15" s="41" t="s">
         <v>49</v>
       </c>
@@ -6731,7 +7272,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="11.25" customHeight="1">
+    <row r="16" spans="1:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B16" s="41" t="s">
         <v>50</v>
       </c>
@@ -6777,7 +7318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:19" ht="11.25" customHeight="1">
+    <row r="17" spans="2:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B17" s="41" t="s">
         <v>51</v>
       </c>
@@ -6823,7 +7364,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="11.25" customHeight="1">
+    <row r="18" spans="2:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B18" s="41" t="s">
         <v>52</v>
       </c>
@@ -6869,7 +7410,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="11.25" customHeight="1">
+    <row r="19" spans="2:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B19" s="41" t="s">
         <v>54</v>
       </c>
@@ -6915,7 +7456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="11.25" customHeight="1">
+    <row r="20" spans="2:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B20" s="41" t="s">
         <v>159</v>
       </c>
@@ -6961,7 +7502,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="11.25" customHeight="1">
+    <row r="21" spans="2:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B21" s="41" t="s">
         <v>160</v>
       </c>
@@ -7007,7 +7548,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:19" s="64" customFormat="1" ht="11.25" customHeight="1">
+    <row r="22" spans="2:19" s="64" customFormat="1" ht="11.25" hidden="1" customHeight="1">
       <c r="B22" s="61" t="s">
         <v>224</v>
       </c>
@@ -7053,7 +7594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:19" s="64" customFormat="1" ht="11.25" customHeight="1">
+    <row r="23" spans="2:19" s="64" customFormat="1" ht="11.25" hidden="1" customHeight="1">
       <c r="B23" s="61" t="s">
         <v>225</v>
       </c>
@@ -7099,7 +7640,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="11.25" customHeight="1">
+    <row r="24" spans="2:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B24" s="41" t="s">
         <v>56</v>
       </c>
@@ -7145,7 +7686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="11.25" customHeight="1">
+    <row r="25" spans="2:19" ht="11.25" hidden="1" customHeight="1">
       <c r="B25" s="41" t="s">
         <v>58</v>
       </c>
@@ -7191,163 +7732,189 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="11.25" customHeight="1">
-      <c r="B26" s="74" t="s">
+    <row r="26" spans="2:19" ht="11.25" hidden="1" customHeight="1">
+      <c r="B26" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="76" t="s">
+      <c r="E26" s="73"/>
+      <c r="F26" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75" t="s">
+      <c r="G26" s="106"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="K26" s="75" t="s">
+      <c r="K26" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="75" t="s">
+      <c r="L26" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="75" t="s">
+      <c r="M26" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="75" t="s">
+      <c r="N26" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="O26" s="75" t="s">
+      <c r="O26" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="P26" s="75" t="s">
+      <c r="P26" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="77" t="s">
+      <c r="Q26" s="73"/>
+      <c r="R26" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="S26" s="75" t="s">
+      <c r="S26" s="73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="11.25" customHeight="1">
-      <c r="B27" s="74" t="s">
+    <row r="27" spans="2:19" ht="11.25" hidden="1" customHeight="1">
+      <c r="B27" s="105" t="s">
         <v>261</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76" t="s">
+      <c r="E27" s="73"/>
+      <c r="F27" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="G27" s="76"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75" t="s">
+      <c r="G27" s="106"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="K27" s="75" t="s">
+      <c r="K27" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="75" t="s">
+      <c r="L27" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="75" t="s">
+      <c r="M27" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="N27" s="75" t="s">
+      <c r="N27" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="O27" s="75" t="s">
+      <c r="O27" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="P27" s="75" t="s">
+      <c r="P27" s="73" t="s">
         <v>264</v>
       </c>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="77" t="s">
+      <c r="Q27" s="73"/>
+      <c r="R27" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="S27" s="75" t="s">
+      <c r="S27" s="73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="11.25" customHeight="1">
-      <c r="B28" s="74" t="s">
+    <row r="28" spans="2:19" ht="11.25" hidden="1" customHeight="1">
+      <c r="B28" s="105" t="s">
         <v>265</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76" t="s">
+      <c r="E28" s="73"/>
+      <c r="F28" s="106" t="s">
         <v>265</v>
       </c>
-      <c r="G28" s="76"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75" t="s">
+      <c r="G28" s="106"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="K28" s="75" t="s">
+      <c r="K28" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="L28" s="75" t="s">
+      <c r="L28" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="M28" s="75" t="s">
+      <c r="M28" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="N28" s="75" t="s">
+      <c r="N28" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="75" t="s">
+      <c r="O28" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="P28" s="75" t="s">
+      <c r="P28" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="77" t="s">
+      <c r="Q28" s="73"/>
+      <c r="R28" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="S28" s="75" t="s">
+      <c r="S28" s="73" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="29" spans="2:19" ht="11.25" customHeight="1">
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
+      <c r="B29" s="108" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="109"/>
+      <c r="F29" s="108" t="s">
+        <v>306</v>
+      </c>
+      <c r="G29" s="108"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="S29" s="74" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="30" spans="2:19" ht="11.25" customHeight="1">
       <c r="B30" s="41"/>
@@ -8015,6 +8582,11 @@
     <row r="427" ht="11.25" customHeight="1"/>
     <row r="428" ht="11.25" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A9:S29">
+    <filterColumn colId="9">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -8023,31 +8595,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF99CC"/>
-  </sheetPr>
   <dimension ref="A1:M460"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="45.125" customWidth="1"/>
-    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="37" customFormat="1" ht="11.25">
+    <row r="1" spans="1:13" s="37" customFormat="1" ht="10.8">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -8061,7 +8630,7 @@
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
     </row>
-    <row r="2" spans="1:13" s="37" customFormat="1" ht="25.5">
+    <row r="2" spans="1:13" s="37" customFormat="1" ht="25.8">
       <c r="B2" s="39" t="s">
         <v>61</v>
       </c>
@@ -8093,7 +8662,7 @@
     </row>
     <row r="4" spans="1:13" s="48" customFormat="1" ht="11.25" customHeight="1">
       <c r="A4" s="46"/>
-      <c r="B4" s="78"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
@@ -8107,8 +8676,8 @@
     </row>
     <row r="5" spans="1:13" s="48" customFormat="1" ht="11.25" customHeight="1">
       <c r="A5" s="46"/>
-      <c r="B5" s="79" t="s">
-        <v>290</v>
+      <c r="B5" s="77" t="s">
+        <v>289</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -8123,8 +8692,8 @@
     </row>
     <row r="6" spans="1:13" s="48" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="46"/>
-      <c r="B6" s="79" t="s">
-        <v>303</v>
+      <c r="B6" s="77" t="s">
+        <v>302</v>
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
@@ -8139,8 +8708,8 @@
     </row>
     <row r="7" spans="1:13" s="48" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="46"/>
-      <c r="B7" s="81" t="s">
-        <v>293</v>
+      <c r="B7" s="79" t="s">
+        <v>292</v>
       </c>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
@@ -8168,8 +8737,8 @@
     </row>
     <row r="9" spans="1:13" s="48" customFormat="1" ht="11.25" customHeight="1">
       <c r="A9" s="46"/>
-      <c r="B9" s="79" t="s">
-        <v>294</v>
+      <c r="B9" s="77" t="s">
+        <v>293</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
@@ -8184,8 +8753,8 @@
     </row>
     <row r="10" spans="1:13" s="48" customFormat="1" ht="11.25" customHeight="1">
       <c r="A10" s="46"/>
-      <c r="B10" s="79" t="s">
-        <v>302</v>
+      <c r="B10" s="77" t="s">
+        <v>301</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
@@ -8200,8 +8769,8 @@
     </row>
     <row r="11" spans="1:13" s="48" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="46"/>
-      <c r="B11" s="79" t="s">
-        <v>295</v>
+      <c r="B11" s="77" t="s">
+        <v>294</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
@@ -8216,8 +8785,8 @@
     </row>
     <row r="12" spans="1:13" s="48" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="46"/>
-      <c r="B12" s="79" t="s">
-        <v>292</v>
+      <c r="B12" s="77" t="s">
+        <v>291</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
@@ -8244,7 +8813,7 @@
       <c r="K13" s="47"/>
       <c r="L13" s="47"/>
     </row>
-    <row r="14" spans="1:13" s="37" customFormat="1" ht="23.25" thickBot="1">
+    <row r="14" spans="1:13" s="37" customFormat="1" ht="22.2" thickBot="1">
       <c r="B14" s="49" t="s">
         <v>25</v>
       </c>
@@ -8316,7 +8885,7 @@
     </row>
     <row r="16" spans="1:13" ht="11.25" customHeight="1">
       <c r="B16" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C16" s="56" t="s">
         <v>187</v>
@@ -9854,273 +10423,273 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="2:13" ht="11.25" customHeight="1">
-      <c r="B66" s="74" t="s">
+    <row r="66" spans="2:13" s="110" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B66" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="C66" s="75" t="s">
+      <c r="C66" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="D66" s="75" t="s">
+      <c r="D66" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="E66" s="75" t="s">
+      <c r="E66" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F66" s="75" t="s">
+      <c r="F66" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="G66" s="76" t="s">
+      <c r="G66" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="H66" s="75"/>
-      <c r="I66" s="75"/>
-      <c r="J66" s="75"/>
-      <c r="K66" s="75"/>
-      <c r="L66" s="75" t="s">
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="M66" s="75" t="s">
+      <c r="M66" s="73" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="11.25" customHeight="1">
-      <c r="B67" s="76" t="s">
+    <row r="67" spans="2:13" s="110" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B67" s="106" t="s">
         <v>247</v>
       </c>
-      <c r="C67" s="75" t="s">
+      <c r="C67" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="D67" s="75" t="s">
+      <c r="D67" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="E67" s="75" t="s">
+      <c r="E67" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F67" s="75" t="s">
+      <c r="F67" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="G67" s="76" t="s">
+      <c r="G67" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="H67" s="75"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75" t="s">
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="M67" s="75" t="s">
+      <c r="M67" s="73" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="11.25" customHeight="1">
-      <c r="B68" s="76" t="s">
+    <row r="68" spans="2:13" s="110" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B68" s="106" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="75" t="s">
+      <c r="C68" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="D68" s="75" t="s">
+      <c r="D68" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="E68" s="75" t="s">
+      <c r="E68" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F68" s="75" t="s">
+      <c r="F68" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="G68" s="76" t="s">
+      <c r="G68" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="H68" s="75"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75" t="s">
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="M68" s="75" t="s">
+      <c r="M68" s="73" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="11.25" customHeight="1">
-      <c r="B69" s="74" t="s">
+    <row r="69" spans="2:13" s="110" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B69" s="105" t="s">
         <v>260</v>
       </c>
-      <c r="C69" s="75" t="s">
+      <c r="C69" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="D69" s="75" t="s">
+      <c r="D69" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="E69" s="75" t="s">
+      <c r="E69" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F69" s="75" t="s">
+      <c r="F69" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="G69" s="76" t="s">
+      <c r="G69" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="H69" s="75"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75" t="s">
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="M69" s="75" t="s">
+      <c r="M69" s="73" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="2:13" ht="11.25" customHeight="1">
-      <c r="B70" s="74" t="s">
+    <row r="70" spans="2:13" s="110" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B70" s="105" t="s">
         <v>260</v>
       </c>
-      <c r="C70" s="75" t="s">
+      <c r="C70" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="D70" s="75" t="s">
+      <c r="D70" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="E70" s="75" t="s">
+      <c r="E70" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="75" t="s">
+      <c r="F70" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="G70" s="76" t="s">
+      <c r="G70" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="H70" s="75"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="75" t="s">
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="M70" s="75" t="s">
+      <c r="M70" s="73" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="2:13" ht="11.25" customHeight="1">
-      <c r="B71" s="74" t="s">
+    <row r="71" spans="2:13" s="110" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B71" s="105" t="s">
         <v>260</v>
       </c>
-      <c r="C71" s="75" t="s">
+      <c r="C71" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="D71" s="75" t="s">
+      <c r="D71" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="E71" s="75" t="s">
+      <c r="E71" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="75" t="s">
+      <c r="F71" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="G71" s="76" t="s">
+      <c r="G71" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="H71" s="75"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75" t="s">
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="M71" s="75" t="s">
+      <c r="M71" s="73" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="2:13" ht="11.25" customHeight="1">
-      <c r="B72" s="76" t="s">
+    <row r="72" spans="2:13" s="110" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B72" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="C72" s="75" t="s">
+      <c r="C72" s="68" t="s">
         <v>275</v>
       </c>
-      <c r="D72" s="75" t="s">
+      <c r="D72" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="E72" s="75" t="s">
+      <c r="E72" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F72" s="75" t="s">
+      <c r="F72" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="G72" s="76" t="s">
+      <c r="G72" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="H72" s="75"/>
-      <c r="I72" s="75"/>
-      <c r="J72" s="75"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="75" t="s">
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="M72" s="75" t="s">
+      <c r="M72" s="73" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="2:13" ht="11.25" customHeight="1">
-      <c r="B73" s="76" t="s">
+    <row r="73" spans="2:13" s="110" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B73" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="C73" s="75" t="s">
+      <c r="C73" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="D73" s="75" t="s">
+      <c r="D73" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="E73" s="75" t="s">
+      <c r="E73" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F73" s="75" t="s">
+      <c r="F73" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="G73" s="76" t="s">
+      <c r="G73" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="75" t="s">
+      <c r="H73" s="73"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="M73" s="75" t="s">
+      <c r="M73" s="73" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="2:13" ht="11.25" customHeight="1">
-      <c r="B74" s="76" t="s">
+    <row r="74" spans="2:13" s="110" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B74" s="106" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="75" t="s">
+      <c r="C74" s="68" t="s">
         <v>280</v>
       </c>
-      <c r="D74" s="75" t="s">
+      <c r="D74" s="73" t="s">
         <v>281</v>
       </c>
-      <c r="E74" s="75" t="s">
+      <c r="E74" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F74" s="75" t="s">
+      <c r="F74" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="G74" s="76" t="s">
+      <c r="G74" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="H74" s="75"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="75"/>
-      <c r="K74" s="75"/>
-      <c r="L74" s="75" t="s">
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="M74" s="75" t="s">
+      <c r="M74" s="73" t="s">
         <v>120</v>
       </c>
     </row>
